--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="149">
   <si>
     <t>名字</t>
   </si>
@@ -38,6 +38,9 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>禁用</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
@@ -50,7 +53,7 @@
     <t>end</t>
   </si>
   <si>
-    <t>引导时间[预警]</t>
+    <t>预警时间</t>
   </si>
   <si>
     <t>最大等级</t>
@@ -59,9 +62,6 @@
     <t>冷却时间</t>
   </si>
   <si>
-    <t>施法点</t>
-  </si>
-  <si>
     <t>施法距离</t>
   </si>
   <si>
@@ -80,15 +80,6 @@
     <t>目标标签</t>
   </si>
   <si>
-    <t>无视魔免</t>
-  </si>
-  <si>
-    <t>施法动画</t>
-  </si>
-  <si>
-    <t>引导动画</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -98,6 +89,9 @@
     <t>#LocDOTA_Tooltip_Ability_{}_Description</t>
   </si>
   <si>
+    <t>Disable</t>
+  </si>
+  <si>
     <t>AbilityTextureName</t>
   </si>
   <si>
@@ -128,7 +122,7 @@
     <t>[}]</t>
   </si>
   <si>
-    <t>AbilityChannelTime</t>
+    <t>AbilityCastPoint</t>
   </si>
   <si>
     <t>MaxLevel</t>
@@ -137,9 +131,6 @@
     <t>AbilityCooldown</t>
   </si>
   <si>
-    <t>AbilityCastPoint</t>
-  </si>
-  <si>
     <t>AbilityCastRange</t>
   </si>
   <si>
@@ -158,37 +149,43 @@
     <t>AbilityUnitTargetFlags</t>
   </si>
   <si>
-    <t>SpellImmunityType</t>
-  </si>
-  <si>
-    <t>AbilityCastAnimation</t>
-  </si>
-  <si>
-    <t>AbilityChannelAnimation</t>
-  </si>
-  <si>
     <t>creature_boss_1</t>
   </si>
   <si>
     <t>虎咆哮</t>
   </si>
   <si>
-    <t>蓄力3秒，朝前方30°扇形释放咆哮，造成大量伤害并减速99%。技能长度1000码</t>
-  </si>
-  <si>
-    <t>primal_beast_pulverize</t>
-  </si>
-  <si>
-    <t>abilities/creature/creature_boss_1</t>
-  </si>
-  <si>
-    <t>damage_factor 200</t>
-  </si>
-  <si>
-    <t>radius 600</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
+    <r>
+      <t>蓄力3秒，朝前方30°扇形释放咆哮，造成大量伤害并减速99%。技能长度1000码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值60%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abaddon_aphotic_shield</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_1</t>
+  </si>
+  <si>
+    <t>dmg_max_hp 20</t>
+  </si>
+  <si>
+    <t>line_width 100</t>
+  </si>
+  <si>
+    <t>wt_</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
   </si>
   <si>
     <t>ability_lua</t>
@@ -200,10 +197,660 @@
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
   </si>
   <si>
-    <t>ACT_DOTA_CAST_ABILITY_5</t>
-  </si>
-  <si>
-    <t>ACT_DOTA_CHANNEL_ABILITY_5</t>
+    <t>creature_boss_2</t>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力2秒，朝前方30°扇形释放持续火焰灼烧，每秒造成大量伤害（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伤害间隔1秒一次，每次伤害为玩家最大生命值25%）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并顺时针/逆时针（随机方向）转动，持续5秒。转动速度较慢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（5秒转360°）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。技能长度1000码</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_2</t>
+  </si>
+  <si>
+    <t>creature_boss_3</t>
+  </si>
+  <si>
+    <t>雷霆万钧</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，对自身直径800码范围内的所有区域随机降下雷霆打击，雷霆打击的范围为直径200码。每秒3次雷霆。持续5秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每次雷霆打击伤害为玩家最大生命值25%，每次打击延迟1.5秒）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_3</t>
+  </si>
+  <si>
+    <t>creature_boss_4</t>
+  </si>
+  <si>
+    <t>万象天引</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，对自身直径1000码范围内敌人强吸引，并每秒造成伤害，距离boss越近受到伤害越高。持续4秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每秒伤害玩家最大生命值25%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_4</t>
+  </si>
+  <si>
+    <t>creature_boss_5</t>
+  </si>
+  <si>
+    <t>退</t>
+  </si>
+  <si>
+    <r>
+      <t>无前摇，直接击退自身直径范围内300码的玩家，造成高额伤害。该技能只会出现在特定技能结束后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值25%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_5</t>
+  </si>
+  <si>
+    <t>creature_boss_6</t>
+  </si>
+  <si>
+    <t>灵魂吸取</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力2秒，向前方宽300码，长900码进行灵魂吸取，不断将敌人吸取到技能释放点，同时造成伤害并扣除一定蓝量，持续4秒。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每秒伤害为玩家最大生命值25%，蓝量扣除50点每秒）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_6</t>
+  </si>
+  <si>
+    <t>creature_boss_7</t>
+  </si>
+  <si>
+    <t>静止空间</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力2秒后开启提示，玩家必须在3秒内保持原地不动，如果动了则会受到天降雷电的打击造成高额伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值75%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_7</t>
+  </si>
+  <si>
+    <t>creature_boss_8</t>
+  </si>
+  <si>
+    <t>移动空间</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力2秒后开启提示，玩家必须在3秒内保持移动，如果停下不动则会受到天降雷电的打击造成高额伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值75%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_8</t>
+  </si>
+  <si>
+    <t>creature_boss_9</t>
+  </si>
+  <si>
+    <t>垃圾分类</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时玩家上会出现可回收垃圾和不可回收垃圾随机一个图标。
+倒计时10秒，玩家需要在10秒内跑到指定分类区域里去等计时结束。如果10秒后有玩家没有进指定区域，或者进错区域，则造成高额伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值75%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_9</t>
+  </si>
+  <si>
+    <t>creature_boss_10</t>
+  </si>
+  <si>
+    <t>垃圾分类【奖励版】</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时1000码范围内会出现随机8个可回收垃圾和不可回收垃圾。
+倒计时10秒，玩家需要去拾取垃圾然后再到对应的区域去置放垃圾。触碰垃圾即可拾取垃圾，到指定区域即可自动卸载垃圾。
+分类3个垃圾以下，造成高额伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值75%）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+分类3个到5个，给与低级奖励（经验值200）
+分类6个到7个，给与中级奖励（经验值300）
+分类8个，给与高级奖励（经验值500）</t>
+    </r>
+  </si>
+  <si>
+    <t>1.单位数量为8个，其中随机分配可回收与不可回收单位</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_10</t>
+  </si>
+  <si>
+    <t>creature_boss_11</t>
+  </si>
+  <si>
+    <t>冰○</t>
+  </si>
+  <si>
+    <r>
+      <t>boss头上出现○提示，延迟3秒后 对boss自身范围400码以外至800码以内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（圆形环装范围）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成高额伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值45%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_11</t>
+  </si>
+  <si>
+    <t>creature_boss_12</t>
+  </si>
+  <si>
+    <t>火△</t>
+  </si>
+  <si>
+    <r>
+      <t>boss头上出现△提示，延迟3秒后 以boss自身面向为12点方向，并向12点方向、4点方向、8点方向释放60°扇形区域造成高额伤害。技能距离800码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值45%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_12</t>
+  </si>
+  <si>
+    <t>creature_boss_13</t>
+  </si>
+  <si>
+    <t>雷□</t>
+  </si>
+  <si>
+    <r>
+      <t>boss头上出现□提示，延迟3秒后 以boss自身范围直径200码开始，每隔200码区域造成高额伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值45%）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最大距离1200码。</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_13</t>
+  </si>
+  <si>
+    <t>creature_boss_14</t>
+  </si>
+  <si>
+    <t>风◇</t>
+  </si>
+  <si>
+    <r>
+      <t>boss头上出现◇提示，延迟3秒后 boss自身距离500码区域出现菱形风墙，风墙跟着boss移动，同时boss会上下左右随机移动5秒钟，并对触碰到风墙的玩家造成高额伤害。
+风墙宽度100码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（风墙伤害为玩家最大生命值25%，伤害间隔1秒）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_14</t>
+  </si>
+  <si>
+    <t>creature_boss_15</t>
+  </si>
+  <si>
+    <t>瘟疫</t>
+  </si>
+  <si>
+    <t>蓄力3秒，3秒内对boss造成伤害的玩家将会变成瘟疫丧尸，移动速度减少50%，无法使用技能无法驱散。持续10秒。</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_15</t>
+  </si>
+  <si>
+    <t>creature_boss_16</t>
+  </si>
+  <si>
+    <t>撼地一拳</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，然后重锤地板，对自身范围直径700码的玩家造成高额伤害，且附带击飞效果并眩晕3秒。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值45%，击飞1秒）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_16</t>
+  </si>
+  <si>
+    <t>creature_boss_17</t>
+  </si>
+  <si>
+    <t>起飞~啰</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，然后跳向距离最远的玩家，落地造成高额范围伤害。伤害范围500码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值75%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_17</t>
+  </si>
+  <si>
+    <t>creature_boss_18</t>
+  </si>
+  <si>
+    <t>亡灵序曲</t>
+  </si>
+  <si>
+    <t>生命值10%以下自动开启，持续5秒。5秒内受到的任意伤害都转换为生命值。</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_18</t>
+  </si>
+  <si>
+    <t>creature_boss_19</t>
+  </si>
+  <si>
+    <t>演奏</t>
+  </si>
+  <si>
+    <t>蓄力3秒，随机给玩家分配不同颜色的音符（显示在头顶），红色音符的玩家攻击boss会受到100%反伤效果，绿色音符的玩家攻击boss会为boss回复等额生命值，黄色音符玩家攻击boss会造成双倍伤害，黑色音符玩家攻击boss会将伤害转移给平均其他玩家身上。
+该过程持续10秒。音符随机且唯一，如果玩家数量大于1，保底给一个黄色音符。</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_19</t>
+  </si>
+  <si>
+    <t>creature_boss_20</t>
+  </si>
+  <si>
+    <t>秩序攻击</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，根据玩家最大数量，boss会对每个玩家连线，依次对连线玩家造成高额伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（伤害为玩家最大生命值90%）。
+技能说明：首先，boss会跟每一名玩家连线（瞬间完成）。连线完成时，在每一名玩家头顶随机出现数字（1,2,3,4，为依次攻击的顺序），同时每一名玩家获得一个格挡盾。
+boss会按顺序攻击，攻击时，会发射一个法球（紫色、黑色，飞行时间最大3秒），顺着线攻击该次应该被攻击的玩家。其他玩家可以站在boss与该玩家的连线之间去帮忙抵挡该次伤害。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每一名玩家有一个格挡盾，会抵消此次伤害的90%，抵消后盾消失。
+攻击次数=玩家最大数量。如果最大数量为3，此时存活玩家数量只有2名，则第三次攻击随机在这2名玩家之上。</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_20</t>
+  </si>
+  <si>
+    <t>creature_boss_21</t>
+  </si>
+  <si>
+    <t>灵魂抽取</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，boss会随机抽取一名玩家的灵魂到自身面前，并对其造成持续高额伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每秒伤害为玩家最大生命值25%）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。被抽取灵魂的玩家会减速25%，技能持续10秒。
+灵魂与本体的连线拉断，技能不会终止但该玩家不再会受到伤害，灵魂与本体连线最大距离1000码。</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_21</t>
+  </si>
+  <si>
+    <t>creature_boss_22</t>
+  </si>
+  <si>
+    <t>沉痛打击</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，boss会锁定一个玩家，在3秒后实施沉痛打击，打击范围直径500码。该伤害可分摊，每多一名玩家分摊，伤害降低25%。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值100%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_22</t>
+  </si>
+  <si>
+    <t>creature_boss_23</t>
+  </si>
+  <si>
+    <t>聚·散</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，boss会将所有玩家强制拉取到一起（范围300码内），并对每一名玩家进行1次天降打击，打击范围直径300码，打击伤害可叠加，每多1次打击伤害，伤害提高25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（初始伤害为玩家最大生命值30%）</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_23</t>
+  </si>
+  <si>
+    <t>creature_boss_24</t>
+  </si>
+  <si>
+    <t>最强之盾</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，会在boss自身范围500码以内随机位置出现道具【圣盾】，5秒之后会对全屏造成高额伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值100%）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。
+该伤害对拾取（触碰）盾的玩家减少70%，但是在拾取盾的玩家身后30°500码以内的玩家不会造成伤害。</t>
+    </r>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_24</t>
+  </si>
+  <si>
+    <t>creature_boss_25</t>
+  </si>
+  <si>
+    <t>最强之矛</t>
+  </si>
+  <si>
+    <t>蓄力3秒，会在boss自身范围500码内随机位置出现道具【圣枪】（数量=最大玩家数），随即boss开始无差别群体远程攻击，持续10秒。
+玩家拾取【圣枪】之后会自动丢向boss，在所有圣枪都丢向boss之后，boss会停止攻击并眩晕4秒。</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_elite_25</t>
   </si>
 </sst>
 </file>
@@ -216,7 +863,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,14 +874,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -381,8 +1042,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,13 +1073,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
+        <fgColor theme="1" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.899990844447157"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +1282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -597,65 +1291,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
-      <right style="medium">
-        <color theme="0"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
-        <color theme="0"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,50 +1336,63 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,58 +1514,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,75 +1571,81 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,40 +1659,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1754,7 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1144,12 +1833,907 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="0.8"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <u val="none"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB6C7EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E49C47AA-27CE-4564-878F-ABB7356A544D}">
+  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7467BC3D-D105-4EF2-A9A9-C65E578E32A2}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1B81C844-1B7F-48E2-81B5-F3F68CC85C15}">
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{860FE259-1D91-406F-8498-C295F3F8E4DC}">
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstColumn" dxfId="14"/>
+      <tableStyleElement type="lastColumn" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="10"/>
+      <tableStyleElement type="firstTotalCell" dxfId="9"/>
+      <tableStyleElement type="lastTotalCell" dxfId="8"/>
+    </tableStyle>
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{AFC7A2D1-5157-463E-8569-80A39121A200}">
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="totalRow" dxfId="27"/>
+      <tableStyleElement type="firstColumn" dxfId="26"/>
+      <tableStyleElement type="lastColumn" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="21"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="20"/>
+      <tableStyleElement type="firstTotalCell" dxfId="19"/>
+      <tableStyleElement type="lastTotalCell" dxfId="18"/>
+    </tableStyle>
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C82D6B7F-CDB1-4D5E-9AD2-5EBAA4ABB268}">
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
+      <tableStyleElement type="totalRow" dxfId="34"/>
+      <tableStyleElement type="firstColumn" dxfId="33"/>
+      <tableStyleElement type="lastColumn" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1452,44 +3036,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.0083333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.3416666666667" customWidth="1"/>
+    <col min="1" max="1" width="20.8416666666667" customWidth="1"/>
+    <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.5083333333333" customWidth="1"/>
-    <col min="5" max="5" width="50.625" customWidth="1"/>
-    <col min="6" max="6" width="18.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="22.3416666666667" customWidth="1"/>
-    <col min="8" max="8" width="24.675" customWidth="1"/>
-    <col min="9" max="9" width="21.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="21.8416666666667" customWidth="1"/>
-    <col min="11" max="11" width="21.3416666666667" customWidth="1"/>
-    <col min="12" max="12" width="15.8416666666667" customWidth="1"/>
-    <col min="13" max="13" width="8.34166666666667" customWidth="1"/>
-    <col min="14" max="14" width="24.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.3416666666667" customWidth="1"/>
-    <col min="16" max="16" width="21.675" customWidth="1"/>
-    <col min="17" max="17" width="21.0083333333333" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
-    <col min="19" max="19" width="50.625" customWidth="1"/>
-    <col min="20" max="20" width="13.3416666666667" customWidth="1"/>
-    <col min="21" max="21" width="33.8416666666667" customWidth="1"/>
-    <col min="22" max="22" width="50.625" customWidth="1"/>
-    <col min="23" max="23" width="14.625" customWidth="1"/>
-    <col min="24" max="24" width="23.675" customWidth="1"/>
-    <col min="25" max="26" width="32.3416666666667" customWidth="1"/>
+    <col min="4" max="4" width="47.675" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.175" customWidth="1"/>
+    <col min="7" max="7" width="38.8416666666667" customWidth="1"/>
+    <col min="8" max="8" width="17.175" customWidth="1"/>
+    <col min="9" max="9" width="17.675" customWidth="1"/>
+    <col min="10" max="10" width="16.675" customWidth="1"/>
+    <col min="11" max="14" width="6.24166666666667" customWidth="1"/>
+    <col min="15" max="15" width="8.34166666666667" customWidth="1"/>
+    <col min="16" max="16" width="18.0083333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.675" customWidth="1"/>
+    <col min="18" max="18" width="18.175" customWidth="1"/>
+    <col min="19" max="19" width="21.0083333333333" customWidth="1"/>
+    <col min="20" max="20" width="38.675" customWidth="1"/>
+    <col min="21" max="21" width="13.175" customWidth="1"/>
+    <col min="22" max="22" width="33.8416666666667" customWidth="1"/>
+    <col min="23" max="23" width="50.625" customWidth="1"/>
+    <col min="24" max="24" width="25.0083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:26">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1499,207 +3079,1581 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="4" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A2" s="5" t="s">
+    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>1</v>
+      </c>
+      <c r="R3" s="13">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="7" t="s">
+      <c r="S3" s="13">
+        <v>700</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="13"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="72" customHeight="1" spans="1:24">
+      <c r="A4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="15" t="s">
+      <c r="G4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="J4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>1</v>
+      </c>
+      <c r="R4" s="13">
+        <v>20</v>
+      </c>
+      <c r="S4" s="13">
+        <v>700</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="13"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A3" s="9" t="s">
+    <row r="5" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13">
+        <v>20</v>
+      </c>
+      <c r="S5" s="13">
+        <v>700</v>
+      </c>
+      <c r="T5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="U5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="V5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12" t="s">
+      <c r="W5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12">
-        <v>4</v>
-      </c>
-      <c r="O3" s="12">
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="13">
         <v>1</v>
       </c>
-      <c r="P3" s="12">
+      <c r="R6" s="13">
         <v>20</v>
       </c>
-      <c r="Q3" s="12">
-        <v>2</v>
-      </c>
-      <c r="R3" s="12">
-        <v>1000</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="S6" s="13">
+        <v>700</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>1</v>
+      </c>
+      <c r="R7" s="13">
+        <v>20</v>
+      </c>
+      <c r="S7" s="13">
+        <v>700</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>1</v>
+      </c>
+      <c r="R8" s="13">
+        <v>20</v>
+      </c>
+      <c r="S8" s="13">
+        <v>700</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>1</v>
+      </c>
+      <c r="R9" s="13">
+        <v>20</v>
+      </c>
+      <c r="S9" s="13">
+        <v>700</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>1</v>
+      </c>
+      <c r="R10" s="13">
+        <v>20</v>
+      </c>
+      <c r="S10" s="13">
+        <v>700</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="105" customHeight="1" spans="1:24">
+      <c r="A11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="R11" s="13">
+        <v>20</v>
+      </c>
+      <c r="S11" s="13">
+        <v>700</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="154.5" customHeight="1" spans="1:24">
+      <c r="A12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>1</v>
+      </c>
+      <c r="R12" s="13">
+        <v>20</v>
+      </c>
+      <c r="S12" s="13">
+        <v>700</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="13">
+        <v>20</v>
+      </c>
+      <c r="S13" s="13">
+        <v>700</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W13" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>1</v>
+      </c>
+      <c r="R14" s="13">
+        <v>20</v>
+      </c>
+      <c r="S14" s="13">
+        <v>700</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X14" s="13"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>1</v>
+      </c>
+      <c r="R15" s="13">
+        <v>20</v>
+      </c>
+      <c r="S15" s="13">
+        <v>700</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="88.5" customHeight="1" spans="1:24">
+      <c r="A16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>1</v>
+      </c>
+      <c r="R16" s="13">
+        <v>20</v>
+      </c>
+      <c r="S16" s="13">
+        <v>700</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1</v>
+      </c>
+      <c r="R17" s="13">
+        <v>20</v>
+      </c>
+      <c r="S17" s="13">
+        <v>700</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="13"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1</v>
+      </c>
+      <c r="R18" s="13">
+        <v>20</v>
+      </c>
+      <c r="S18" s="13">
+        <v>700</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X18" s="13"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A19" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>1</v>
+      </c>
+      <c r="R19" s="13">
+        <v>20</v>
+      </c>
+      <c r="S19" s="13">
+        <v>700</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" s="13"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>1</v>
+      </c>
+      <c r="R20" s="13">
+        <v>20</v>
+      </c>
+      <c r="S20" s="13">
+        <v>700</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="105" customHeight="1" spans="1:24">
+      <c r="A21" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>1</v>
+      </c>
+      <c r="R21" s="13">
+        <v>20</v>
+      </c>
+      <c r="S21" s="13">
+        <v>700</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" s="13"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="204" customHeight="1" spans="1:24">
+      <c r="A22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>1</v>
+      </c>
+      <c r="R22" s="13">
+        <v>20</v>
+      </c>
+      <c r="S22" s="13">
+        <v>700</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" s="13"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="88.5" customHeight="1" spans="1:24">
+      <c r="A23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>1</v>
+      </c>
+      <c r="R23" s="13">
+        <v>20</v>
+      </c>
+      <c r="S23" s="13">
+        <v>700</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" s="13"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>1</v>
+      </c>
+      <c r="R24" s="13">
+        <v>20</v>
+      </c>
+      <c r="S24" s="13">
+        <v>700</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X24" s="13"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="72" customHeight="1" spans="1:24">
+      <c r="A25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>1</v>
+      </c>
+      <c r="R25" s="13">
+        <v>20</v>
+      </c>
+      <c r="S25" s="13">
+        <v>700</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" s="13"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="72" customHeight="1" spans="1:24">
+      <c r="A26" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>1</v>
+      </c>
+      <c r="R26" s="13">
+        <v>20</v>
+      </c>
+      <c r="S26" s="13">
+        <v>700</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="72" customHeight="1" spans="1:24">
+      <c r="A27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>1</v>
+      </c>
+      <c r="R27" s="13">
+        <v>20</v>
+      </c>
+      <c r="S27" s="13">
+        <v>700</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="191">
   <si>
     <t>名字</t>
   </si>
@@ -56,6 +56,9 @@
     <t>预警时间</t>
   </si>
   <si>
+    <t>引导时间</t>
+  </si>
+  <si>
     <t>最大等级</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t>AbilityCastPoint</t>
   </si>
   <si>
+    <t>AbilityChannelTime</t>
+  </si>
+  <si>
     <t>MaxLevel</t>
   </si>
   <si>
@@ -156,6 +162,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，朝前方30°扇形释放咆哮，造成大量伤害并减速99%。技能长度1000码。</t>
     </r>
     <r>
@@ -163,29 +175,34 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值60%）</t>
     </r>
   </si>
   <si>
+    <t>蓄力期间，boss无敌</t>
+  </si>
+  <si>
     <t>abaddon_aphotic_shield</t>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_1</t>
+    <t>abilities/creature/boss/creature_boss_1</t>
   </si>
   <si>
     <t>dmg_max_hp 20</t>
   </si>
   <si>
-    <t>line_width 100</t>
-  </si>
-  <si>
-    <t>wt_</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
+    <t>sector_angle 30</t>
+  </si>
+  <si>
+    <t>sector_distance 1000</t>
+  </si>
+  <si>
+    <t>movespeed_pct -99</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_POINT | DOTA_ABILITY_BEHAVIOR_CHANNELLED</t>
   </si>
   <si>
     <t>ability_lua</t>
@@ -204,6 +221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力2秒，朝前方30°扇形释放持续火焰灼烧，每秒造成大量伤害（</t>
     </r>
     <r>
@@ -211,7 +234,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>伤害间隔1秒一次，每次伤害为玩家最大生命值25%）</t>
@@ -221,7 +243,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>并顺时针/逆时针（随机方向）转动，持续5秒。转动速度较慢</t>
@@ -231,7 +252,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（5秒转360°）</t>
@@ -241,14 +261,19 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。技能长度1000码</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_2</t>
+    <t>abilities/creature/boss/creature_boss_2</t>
+  </si>
+  <si>
+    <t>line_width 50</t>
+  </si>
+  <si>
+    <t>line_distance 1000</t>
   </si>
   <si>
     <t>creature_boss_3</t>
@@ -258,6 +283,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，对自身直径800码范围内的所有区域随机降下雷霆打击，雷霆打击的范围为直径200码。每秒3次雷霆。持续5秒</t>
     </r>
     <r>
@@ -265,14 +296,31 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（每次雷霆打击伤害为玩家最大生命值25%，每次打击延迟1.5秒）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_3</t>
+    <t>abilities/creature/boss/creature_boss_3</t>
+  </si>
+  <si>
+    <t>dmg_max_hp 25</t>
+  </si>
+  <si>
+    <t>thunder_radius 200</t>
+  </si>
+  <si>
+    <t>thunder_count 3</t>
+  </si>
+  <si>
+    <t>thunder_interval 1.5</t>
+  </si>
+  <si>
+    <t>duration 5</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET</t>
   </si>
   <si>
     <t>creature_boss_4</t>
@@ -282,6 +330,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，对自身直径1000码范围内敌人强吸引，并每秒造成伤害，距离boss越近受到伤害越高。持续4秒</t>
     </r>
     <r>
@@ -289,14 +343,24 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（每秒伤害玩家最大生命值25%）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_4</t>
+    <t>该技能机制过程中，boss无敌。
+无敌结束时间节点：倒计时结束后
+吸附，谜团大招【黑洞】</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_4</t>
+  </si>
+  <si>
+    <t>radius 1000</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET | DOTA_ABILITY_BEHAVIOR_CHANNELLED</t>
   </si>
   <si>
     <t>creature_boss_5</t>
@@ -306,21 +370,25 @@
   </si>
   <si>
     <r>
-      <t>无前摇，直接击退自身直径范围内300码的玩家，造成高额伤害。该技能只会出现在特定技能结束后</t>
+      <t>被动，部分技能释放结束后,.会直接击退自身直径范围内300码的玩家，造成高额伤害。该技能只会出现在特定技能结束后</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值25%）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_5</t>
+    <t>凤凰大招【超新星】最后爆炸特效
+在以下技能后面瞬发：
+万象天引、灵魂吸取、亡灵序曲</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_5</t>
   </si>
   <si>
     <t>creature_boss_6</t>
@@ -330,6 +398,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力2秒，向前方宽300码，长900码进行灵魂吸取，不断将敌人吸取到技能释放点，同时造成伤害并扣除一定蓝量，持续4秒。</t>
     </r>
     <r>
@@ -337,14 +411,24 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（每秒伤害为玩家最大生命值25%，蓝量扣除50点每秒）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_6</t>
+    <t>蓄力期间，boss无敌
+吸附，灵魂吸取特效为莱恩3技能【法力吸取】
+玩家只有在被吸取的范围内才会受到伤害 扣除蓝量</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_6</t>
+  </si>
+  <si>
+    <t>line_width 300</t>
+  </si>
+  <si>
+    <t>line_distance 900</t>
   </si>
   <si>
     <t>creature_boss_7</t>
@@ -354,6 +438,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力2秒后开启提示，玩家必须在3秒内保持原地不动，如果动了则会受到天降雷电的打击造成高额伤害。</t>
     </r>
     <r>
@@ -361,14 +451,24 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值75%）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_7</t>
+    <t>蓄力期间，boss无敌
+打击特效为宙斯【雷击】
+蓄力结束后，玩家屏幕顶上会出现提示：静止 图标</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_7</t>
+  </si>
+  <si>
+    <t>dmg_max_hp 75</t>
+  </si>
+  <si>
+    <t>duration 3</t>
   </si>
   <si>
     <t>creature_boss_8</t>
@@ -379,64 +479,82 @@
   <si>
     <r>
       <t>蓄力2秒后开启提示，玩家必须在3秒内保持移动，如果停下不动则会受到天降雷电的打击造成高额伤害。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（伤害为玩家最大生命值75%）</t>
-    </r>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_8</t>
-  </si>
-  <si>
-    <t>creature_boss_9</t>
-  </si>
-  <si>
-    <t>垃圾分类</t>
-  </si>
-  <si>
-    <r>
-      <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时玩家上会出现可回收垃圾和不可回收垃圾随机一个图标。
-倒计时10秒，玩家需要在10秒内跑到指定分类区域里去等计时结束。如果10秒后有玩家没有进指定区域，或者进错区域，则造成高额伤害。</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值75%）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_9</t>
-  </si>
-  <si>
-    <t>creature_boss_10</t>
-  </si>
-  <si>
-    <t>垃圾分类【奖励版】</t>
-  </si>
-  <si>
-    <r>
-      <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时1000码范围内会出现随机8个可回收垃圾和不可回收垃圾。
-倒计时10秒，玩家需要去拾取垃圾然后再到对应的区域去置放垃圾。触碰垃圾即可拾取垃圾，到指定区域即可自动卸载垃圾。
-分类3个垃圾以下，造成高额伤害。</t>
+    <t>蓄力期间，boss无敌
+打击特效为宙斯【雷击】
+蓄力结束后，玩家屏幕顶上会出现提示：移动 图标</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_8</t>
+  </si>
+  <si>
+    <t>creature_boss_9</t>
+  </si>
+  <si>
+    <t>垃圾分类</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时玩家上会出现可回收垃圾和不可回收垃圾随机一个图标。
+倒计时10秒，玩家需要在10秒内跑到指定分类区域里去等计时结束。如果10秒后有玩家没有进指定区域，或者进错区域，则造成高额伤害。</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值75%）</t>
+    </r>
+  </si>
+  <si>
+    <t>该技能机制过程中，boss无敌。
+无敌结束时间节点：倒计时结束后
+1.可回收垃圾区域=绿色圈圈
+2.不可回收垃圾区域=红色圈圈
+3.玩家头上会出现随机可回收垃圾或不可回收垃圾的图标</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_9</t>
+  </si>
+  <si>
+    <t>radius 300</t>
+  </si>
+  <si>
+    <t>creature_boss_10</t>
+  </si>
+  <si>
+    <t>垃圾分类【奖励版】</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时1000码范围内会出现随机8个可回收垃圾和不可回收垃圾。
+倒计时10秒，玩家需要去拾取垃圾然后再到对应的区域去置放垃圾。触碰垃圾即可拾取垃圾，到指定区域即可自动卸载垃圾。
+分类3个垃圾以下，造成高额伤害。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值75%）</t>
@@ -446,7 +564,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -456,10 +573,19 @@
     </r>
   </si>
   <si>
-    <t>1.单位数量为8个，其中随机分配可回收与不可回收单位</t>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_10</t>
+    <t>该技能机制过程中，boss无敌。
+无敌结束时间节点：倒计时结束后
+1.单位数量为8个，其中随机分配可回收与不可回收单位
+2.可回收垃圾区域=绿色圈圈
+models/props_debris/merchant_debris_chest002.vmdl
+3.不可回收垃圾区域=红色圈圈
+models/props_generic/sack_bag_03.vmdl</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_10</t>
+  </si>
+  <si>
+    <t>count 8</t>
   </si>
   <si>
     <t>creature_boss_11</t>
@@ -469,6 +595,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>boss头上出现○提示，延迟3秒后 对boss自身范围400码以外至800码以内</t>
     </r>
     <r>
@@ -476,7 +608,6 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（圆形环装范围）</t>
@@ -486,7 +617,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>区域</t>
@@ -496,7 +626,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>造成高额伤害。</t>
@@ -506,14 +635,16 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值45%）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_11</t>
+    <t>abilities/creature/boss/creature_boss_11</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
   </si>
   <si>
     <t>creature_boss_12</t>
@@ -523,6 +654,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>boss头上出现△提示，延迟3秒后 以boss自身面向为12点方向，并向12点方向、4点方向、8点方向释放60°扇形区域造成高额伤害。技能距离800码</t>
     </r>
     <r>
@@ -530,14 +667,13 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值45%）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_12</t>
+    <t>abilities/creature/boss/creature_boss_12</t>
   </si>
   <si>
     <t>creature_boss_13</t>
@@ -547,6 +683,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>boss头上出现□提示，延迟3秒后 以boss自身范围直径200码开始，每隔200码区域造成高额伤害</t>
     </r>
     <r>
@@ -554,7 +696,6 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值45%）</t>
@@ -564,14 +705,13 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，最大距离1200码。</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_13</t>
+    <t>abilities/creature/boss/creature_boss_13</t>
   </si>
   <si>
     <t>creature_boss_14</t>
@@ -581,6 +721,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>boss头上出现◇提示，延迟3秒后 boss自身距离500码区域出现菱形风墙，风墙跟着boss移动，同时boss会上下左右随机移动5秒钟，并对触碰到风墙的玩家造成高额伤害。
 风墙宽度100码。</t>
     </r>
@@ -589,14 +735,13 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（风墙伤害为玩家最大生命值25%，伤害间隔1秒）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_14</t>
+    <t>abilities/creature/boss/creature_boss_14</t>
   </si>
   <si>
     <t>creature_boss_15</t>
@@ -605,10 +750,20 @@
     <t>瘟疫</t>
   </si>
   <si>
-    <t>蓄力3秒，3秒内对boss造成伤害的玩家将会变成瘟疫丧尸，移动速度减少50%，无法使用技能无法驱散。持续10秒。</t>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_15</t>
+    <t>蓄力3秒，蓄力期间免疫伤害,尝试伤害BOSS的单位则将变成瘟疫丧尸，移动速度减少50%，无法使用技能无法驱散。持续10秒。</t>
+  </si>
+  <si>
+    <t>初始蓄力阶段boss无敌。
+蓄力之后有个抬手爆炸特效，痛苦女王3技能【痛苦尖叫】</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_15</t>
+  </si>
+  <si>
+    <t>movespeed_pct -50</t>
+  </si>
+  <si>
+    <t>duration 10</t>
   </si>
   <si>
     <t>creature_boss_16</t>
@@ -618,6 +773,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，然后重锤地板，对自身范围直径700码的玩家造成高额伤害，且附带击飞效果并眩晕3秒。</t>
     </r>
     <r>
@@ -625,14 +786,23 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（伤害为玩家最大生命值45%，击飞1秒）</t>
     </r>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_16</t>
+    <t>初始蓄力阶段boss无敌。
+捶地特效为：撼地者4技能【回音击】</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_16</t>
+  </si>
+  <si>
+    <t>dmg_max_hp 45</t>
+  </si>
+  <si>
+    <t>radius 700</t>
   </si>
   <si>
     <t>creature_boss_17</t>
@@ -643,201 +813,253 @@
   <si>
     <r>
       <t>蓄力3秒，然后跳向距离最远的玩家，落地造成高额范围伤害。伤害范围500码。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（伤害为玩家最大生命值75%）</t>
+    </r>
+  </si>
+  <si>
+    <t>初始蓄力阶段boss无敌。
+跳跃速度1000
+跳跃 落地特效为：上古巨神1技能【回音重踏】</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_17</t>
+  </si>
+  <si>
+    <t>creature_boss_18</t>
+  </si>
+  <si>
+    <t>亡灵序曲</t>
+  </si>
+  <si>
+    <t>生命值10%以下自动开启，持续5秒。5秒内受到的任意伤害都转换为生命值。</t>
+  </si>
+  <si>
+    <t>通过该方式回复血量后，boss生命值再次到达之前到达过的阈值（75%/50%/25%时），不会再有技能机制。</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_18</t>
+  </si>
+  <si>
+    <t>creature_boss_19</t>
+  </si>
+  <si>
+    <t>演奏</t>
+  </si>
+  <si>
+    <t>蓄力3秒，立即随机给玩家分配不同颜色的音符（显示在头顶），红色音符的玩家攻击boss会受到100%反伤效果，绿色音符的玩家攻击boss会为boss回复等额生命值，黄色音符玩家攻击boss会造成双倍伤害，黑色音符玩家攻击boss会将伤害转移给平均其他玩家身上。
+该过程持续20秒。音符随机且唯一，如果玩家数量大于1，保底给一个黄色音符。</t>
+  </si>
+  <si>
+    <t>初始蓄力阶段boss无敌。
+音符瞬间出现，玩家需要自身摸索头顶音符的效果。</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_19</t>
+  </si>
+  <si>
+    <t>creature_boss_20</t>
+  </si>
+  <si>
+    <t>秩序攻击</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，为每一名玩家套上一个盾（可以抵挡该技能攻击伤害的90%），根据玩家最大数量进行攻击，比如4个玩家开局，无论现阶段存活多少玩家，boss该次技能会拥有4次攻击，每次攻击造成高额伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（伤害为玩家最大生命值90%）。
+技能说明：首先，boss会跟随机一名玩家连线（瞬间完成）。连线完成时，延迟2秒会对连线的玩家造成攻击。攻击时，会发射一个法球（紫色、黑色，飞行时间最大3秒）。boss不会主动更换连线目标。
+如果需要更换连线，则需要boss与玩家中间去接线。
+boss在上一次攻击完成时，会间隔3秒，再次进行攻击读条，依旧延迟2秒对连线的玩家造成攻击。需要其他玩家站在boss与该玩家的连线之间去帮忙抵挡该次伤害。当任意一名玩家站在boss和被连线的玩家之间被boss攻击时，该名玩家和boss的连线会到该次被攻击玩家身上。
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">技能流程:
+boss流程：
+该技能机制过程中，boss无敌。
+无敌结束节点：最后一次攻击完1秒后。
+1.蓄力3秒，为每个玩家添加护盾。（护盾只可生效一次）
+2.由boss向随机一名玩家连线。（连线长度不限制，瞬间完成）
+3.延迟2秒，boss向连线的玩家进行一次攻击。攻击表达为：沿着连线，发射一个法球（紫色、黑色，飞行时间最大3秒）
+4.间隔3秒后，再延迟2秒向连线的玩家进行一次攻击。
+5.循环第4步骤，直至攻击次数完毕。
+玩家流程：
+1.被连线的玩家，自身拥有护盾，用护盾抵消该次攻击的大部分伤害（抵消90%）
+2.在boss下一次攻击之前，需要其他玩家移动到boss与连线玩家之间去迎接下次伤害。（被攻击的玩家会自动与boss连线，boss和之前玩家的连线则消失，下一次攻击会以被新连线的玩家（连线）为目标）
+3.循环第3步骤，直至boss攻击次数完毕。
+</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_20</t>
+  </si>
+  <si>
+    <t>creature_boss_21</t>
+  </si>
+  <si>
+    <t>灵魂抽取</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，boss会随机抽取一名玩家的灵魂在玩家面前前，并对其造成持续高额伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（每秒伤害为玩家最大生命值25%）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。被抽取灵魂的玩家会减速25%，技能持续10秒。
+灵魂与本体的连线拉断，技能不会终止但该玩家不再会受到伤害，灵魂与本体连线最大距离1000码。</t>
+    </r>
+  </si>
+  <si>
+    <t>初始蓄力阶段boss无敌。
+俄洛伊抽取灵魂的技能。
+灵魂无敌,存在则持续扣血
+特效为：艾欧饰品【祭坛灵球】的1技能特效。</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_21</t>
+  </si>
+  <si>
+    <t>creature_boss_22</t>
+  </si>
+  <si>
+    <t>沉痛打击</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓄力3秒，boss会锁定一个玩家，在3秒后实施沉痛打击，打击范围直径500码。该伤害可分摊，每多一名玩家分摊，伤害降低25%。</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>（伤害为玩家最大生命值75%）</t>
-    </r>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_17</t>
-  </si>
-  <si>
-    <t>creature_boss_18</t>
-  </si>
-  <si>
-    <t>亡灵序曲</t>
-  </si>
-  <si>
-    <t>生命值10%以下自动开启，持续5秒。5秒内受到的任意伤害都转换为生命值。</t>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_18</t>
-  </si>
-  <si>
-    <t>creature_boss_19</t>
-  </si>
-  <si>
-    <t>演奏</t>
-  </si>
-  <si>
-    <t>蓄力3秒，随机给玩家分配不同颜色的音符（显示在头顶），红色音符的玩家攻击boss会受到100%反伤效果，绿色音符的玩家攻击boss会为boss回复等额生命值，黄色音符玩家攻击boss会造成双倍伤害，黑色音符玩家攻击boss会将伤害转移给平均其他玩家身上。
-该过程持续10秒。音符随机且唯一，如果玩家数量大于1，保底给一个黄色音符。</t>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_19</t>
-  </si>
-  <si>
-    <t>creature_boss_20</t>
-  </si>
-  <si>
-    <t>秩序攻击</t>
-  </si>
-  <si>
-    <r>
-      <t>蓄力3秒，根据玩家最大数量，boss会对每个玩家连线，依次对连线玩家造成高额伤害</t>
+      <t>（伤害为玩家最大生命值100%）</t>
+    </r>
+  </si>
+  <si>
+    <t>玩家流程：
+该技能机制过程中，boss无敌。
+无敌结束节点：沉痛打击完1秒后。
+1.此时会提示玩家：向被瞄准的友军靠拢！！
+玩家需要站到被锁定玩家的500码以内分摊伤害。
+天降打击火女龙锻之耀饰品W</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_22</t>
+  </si>
+  <si>
+    <t>creature_boss_23</t>
+  </si>
+  <si>
+    <t>聚·散</t>
+  </si>
+  <si>
+    <r>
+      <t>蓄力3秒，boss会将所有玩家强制拉取目标玩家位置到一起（范围300码内），并对每一名玩家进行1次天降打击，打击延时3秒。打击范围直径300码，打击伤害可叠加，每多1次打击伤害，伤害提高25%</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">（伤害为玩家最大生命值90%）。
-技能说明：首先，boss会跟每一名玩家连线（瞬间完成）。连线完成时，在每一名玩家头顶随机出现数字（1,2,3,4，为依次攻击的顺序），同时每一名玩家获得一个格挡盾。
-boss会按顺序攻击，攻击时，会发射一个法球（紫色、黑色，飞行时间最大3秒），顺着线攻击该次应该被攻击的玩家。其他玩家可以站在boss与该玩家的连线之间去帮忙抵挡该次伤害。
-</t>
-    </r>
+      <t>（初始伤害为玩家最大生命值30%）</t>
+    </r>
+  </si>
+  <si>
+    <t>该技能机制过程中，boss无敌。
+无敌结束节点：天降打击完1秒后。
+拉取用猛犸大招特效
+玩家流程：
+1.需要分散，如果一名玩家在另一名玩家的打击范围内，则两名玩家受到的伤害提高。
+2.打击延时时，玩家头顶出现倒计时。
+天降打击火女龙锻之耀饰品W</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_23</t>
+  </si>
+  <si>
+    <t>creature_boss_24</t>
+  </si>
+  <si>
+    <t>最强之盾</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>每一名玩家有一个格挡盾，会抵消此次伤害的90%，抵消后盾消失。
-攻击次数=玩家最大数量。如果最大数量为3，此时存活玩家数量只有2名，则第三次攻击随机在这2名玩家之上。</t>
-    </r>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_20</t>
-  </si>
-  <si>
-    <t>creature_boss_21</t>
-  </si>
-  <si>
-    <t>灵魂抽取</t>
-  </si>
-  <si>
-    <r>
-      <t>蓄力3秒，boss会随机抽取一名玩家的灵魂到自身面前，并对其造成持续高额伤害</t>
+      <t>蓄力3秒，会在boss自身范围500码以内随机位置出现道具【圣盾】，5秒之后会对全屏造成高额伤害</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>（每秒伤害为玩家最大生命值25%）</t>
+      <t>（伤害为玩家最大生命值100%）</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。被抽取灵魂的玩家会减速25%，技能持续10秒。
-灵魂与本体的连线拉断，技能不会终止但该玩家不再会受到伤害，灵魂与本体连线最大距离1000码。</t>
-    </r>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_21</t>
-  </si>
-  <si>
-    <t>creature_boss_22</t>
-  </si>
-  <si>
-    <t>沉痛打击</t>
-  </si>
-  <si>
-    <r>
-      <t>蓄力3秒，boss会锁定一个玩家，在3秒后实施沉痛打击，打击范围直径500码。该伤害可分摊，每多一名玩家分摊，伤害降低25%。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（伤害为玩家最大生命值100%）</t>
-    </r>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_22</t>
-  </si>
-  <si>
-    <t>creature_boss_23</t>
-  </si>
-  <si>
-    <t>聚·散</t>
-  </si>
-  <si>
-    <r>
-      <t>蓄力3秒，boss会将所有玩家强制拉取到一起（范围300码内），并对每一名玩家进行1次天降打击，打击范围直径300码，打击伤害可叠加，每多1次打击伤害，伤害提高25%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（初始伤害为玩家最大生命值30%）</t>
-    </r>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_23</t>
-  </si>
-  <si>
-    <t>creature_boss_24</t>
-  </si>
-  <si>
-    <t>最强之盾</t>
-  </si>
-  <si>
-    <r>
-      <t>蓄力3秒，会在boss自身范围500码以内随机位置出现道具【圣盾】，5秒之后会对全屏造成高额伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（伤害为玩家最大生命值100%）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>。
-该伤害对拾取（触碰）盾的玩家减少70%，但是在拾取盾的玩家身后30°500码以内的玩家不会造成伤害。</t>
-    </r>
-  </si>
-  <si>
-    <t>abilities/creature/boss/creature_elite_24</t>
+该伤害对拾取（触碰）盾的玩家减少70%，但是在拾取盾的玩家身后60° 500码以内的玩家不会造成伤害。</t>
+    </r>
+  </si>
+  <si>
+    <t>初始蓄力阶段boss无敌。
+1.全屏伤害：
+潮汐猎人大招，特效用饰品【深海毁灭者】（背部）
+2.盾的背后区域：
+绿色区域显示，范围60°角度，边长500码 区域</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_24</t>
   </si>
   <si>
     <t>creature_boss_25</t>
@@ -846,11 +1068,20 @@
     <t>最强之矛</t>
   </si>
   <si>
-    <t>蓄力3秒，会在boss自身范围500码内随机位置出现道具【圣枪】（数量=最大玩家数），随即boss开始无差别群体远程攻击，持续10秒。
+    <t>蓄力3秒，会在boss自身范围1000码内随机位置出现道具【圣枪】（数量=最大玩家数），随即boss开始无差别群体远程攻击，持续10秒。
 玩家拾取【圣枪】之后会自动丢向boss，在所有圣枪都丢向boss之后，boss会停止攻击并眩晕4秒。</t>
   </si>
   <si>
-    <t>abilities/creature/boss/creature_elite_25</t>
+    <t>初始蓄力阶段boss无敌。
+1.无差别远程攻击：
+向随机方向释放 马格纳斯的1技能。
+每秒往3个随机方向释放一次马格纳斯的1技能,距离3000,宽度200,每秒递增1个
+2.丢出【圣枪】：
+玩家拾取（触碰到）圣枪之后，圣枪立即飞向boss。
+圣枪移动速度500码每秒。</t>
+  </si>
+  <si>
+    <t>abilities/creature/boss/creature_boss_25</t>
   </si>
 </sst>
 </file>
@@ -863,7 +1094,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,9 +1124,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1046,25 +1276,16 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,6 +1313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.899990844447157"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,7 +1747,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,16 +1771,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1562,90 +1789,90 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1674,10 +1901,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1686,11 +1916,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1698,8 +1937,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2688,19 +2936,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7467BC3D-D105-4EF2-A9A9-C65E578E32A2}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1AE3D0DB-363F-4FEA-B4E0-6460F2F528F0}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{1B81C844-1B7F-48E2-81B5-F3F68CC85C15}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{F8D31A22-4DF1-4BD8-B61B-B065C7B10857}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{860FE259-1D91-406F-8498-C295F3F8E4DC}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FD2B0729-00CF-4039-996D-05F1A272F112}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2712,7 +2960,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{AFC7A2D1-5157-463E-8569-80A39121A200}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B36140D2-2823-4CA6-86B0-A2BB927C2582}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2726,7 +2974,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C82D6B7F-CDB1-4D5E-9AD2-5EBAA4ABB268}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DA9E77EE-B3C1-4F6C-8B75-69596E73E041}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -3036,40 +3284,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="27.3416666666667" customWidth="1"/>
-    <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47.675" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.175" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.175" customWidth="1"/>
-    <col min="7" max="7" width="38.8416666666667" customWidth="1"/>
-    <col min="8" max="8" width="17.175" customWidth="1"/>
-    <col min="9" max="9" width="17.675" customWidth="1"/>
-    <col min="10" max="10" width="16.675" customWidth="1"/>
-    <col min="11" max="14" width="6.24166666666667" customWidth="1"/>
-    <col min="15" max="15" width="8.34166666666667" customWidth="1"/>
-    <col min="16" max="16" width="18.0083333333333" customWidth="1"/>
-    <col min="17" max="17" width="12.675" customWidth="1"/>
-    <col min="18" max="18" width="18.175" customWidth="1"/>
-    <col min="19" max="19" width="21.0083333333333" customWidth="1"/>
-    <col min="20" max="20" width="38.675" customWidth="1"/>
-    <col min="21" max="21" width="13.175" customWidth="1"/>
-    <col min="22" max="22" width="33.8416666666667" customWidth="1"/>
-    <col min="23" max="23" width="50.625" customWidth="1"/>
-    <col min="24" max="24" width="25.0083333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.8416666666667" customWidth="1"/>
+    <col min="2" max="2" width="24.3416666666667" customWidth="1"/>
+    <col min="3" max="4" width="40.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.175" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.175" customWidth="1"/>
+    <col min="7" max="7" width="34.8416666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.175" customWidth="1"/>
+    <col min="9" max="9" width="15.675" customWidth="1"/>
+    <col min="10" max="10" width="19.5083333333333" customWidth="1"/>
+    <col min="11" max="11" width="21.0083333333333" customWidth="1"/>
+    <col min="12" max="12" width="20.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="4.24166666666667" customWidth="1"/>
+    <col min="15" max="15" width="6.34166666666667" customWidth="1"/>
+    <col min="16" max="16" width="16.0083333333333" customWidth="1"/>
+    <col min="17" max="17" width="19.8416666666667" customWidth="1"/>
+    <col min="18" max="18" width="10.675" customWidth="1"/>
+    <col min="19" max="19" width="16.175" customWidth="1"/>
+    <col min="20" max="20" width="18.0083333333333" customWidth="1"/>
+    <col min="21" max="21" width="40.625" customWidth="1"/>
+    <col min="22" max="22" width="11.175" customWidth="1"/>
+    <col min="23" max="23" width="30.8416666666667" customWidth="1"/>
+    <col min="24" max="24" width="40.625" customWidth="1"/>
+    <col min="25" max="25" width="22.0083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3128,1532 +3379,1599 @@
       <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="Y1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:25">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14">
+        <v>1</v>
+      </c>
+      <c r="S3" s="14">
         <v>20</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="T3" s="14">
+        <v>700</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="14"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12">
+    <row r="4" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
+      <c r="A4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="F4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>5</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1</v>
+      </c>
+      <c r="S4" s="14">
+        <v>20</v>
+      </c>
+      <c r="T4" s="14">
+        <v>700</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
+      <c r="A5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13">
+      <c r="G5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14">
         <v>3</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14">
         <v>1</v>
       </c>
-      <c r="R3" s="13">
+      <c r="S5" s="14">
         <v>20</v>
       </c>
-      <c r="S3" s="13">
+      <c r="T5" s="14">
         <v>700</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" s="14"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>4</v>
+      </c>
+      <c r="R6" s="14">
+        <v>1</v>
+      </c>
+      <c r="S6" s="14">
+        <v>20</v>
+      </c>
+      <c r="T6" s="14">
+        <v>1000</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" s="14"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X3" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14">
+        <v>1</v>
+      </c>
+      <c r="S7" s="14">
+        <v>20</v>
+      </c>
+      <c r="T7" s="14">
+        <v>700</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" s="14"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="72" customHeight="1" spans="1:24">
-      <c r="A4" s="9" t="s">
+    <row r="8" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
+      <c r="A8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>4</v>
+      </c>
+      <c r="R8" s="14">
+        <v>1</v>
+      </c>
+      <c r="S8" s="14">
+        <v>20</v>
+      </c>
+      <c r="T8" s="14">
+        <v>700</v>
+      </c>
+      <c r="U8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="V8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="W8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12">
+      <c r="X8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" s="14"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14">
+        <v>1</v>
+      </c>
+      <c r="S9" s="14">
+        <v>20</v>
+      </c>
+      <c r="T9" s="14">
+        <v>3000</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13">
+      <c r="G10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14">
         <v>3</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14">
         <v>1</v>
       </c>
-      <c r="R4" s="13">
+      <c r="S10" s="14">
         <v>20</v>
       </c>
-      <c r="S4" s="13">
+      <c r="T10" s="14">
         <v>700</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="U10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
+      <c r="A11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X4" s="13"/>
+      <c r="J11" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>10</v>
+      </c>
+      <c r="R11" s="14">
+        <v>1</v>
+      </c>
+      <c r="S11" s="14">
+        <v>20</v>
+      </c>
+      <c r="T11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" s="14"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
-      <c r="A5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12">
+    <row r="12" s="1" customFormat="1" ht="183.5" customHeight="1" spans="1:25">
+      <c r="A12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13">
+      <c r="G12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14">
         <v>3</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q12" s="14">
+        <v>10</v>
+      </c>
+      <c r="R12" s="14">
         <v>1</v>
       </c>
-      <c r="R5" s="13">
+      <c r="S12" s="14">
         <v>20</v>
       </c>
-      <c r="S5" s="13">
+      <c r="T12" s="14">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A13" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14">
+        <v>1</v>
+      </c>
+      <c r="S13" s="14">
+        <v>20</v>
+      </c>
+      <c r="T13" s="14">
         <v>700</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="U13" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" s="14"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
+      <c r="A14" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="14">
+        <v>20</v>
+      </c>
+      <c r="T14" s="14">
+        <v>700</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="V14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" s="14"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
-      <c r="A6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+    <row r="15" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A15" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13">
+      <c r="G15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14">
         <v>3</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14">
         <v>1</v>
       </c>
-      <c r="R6" s="13">
+      <c r="S15" s="14">
         <v>20</v>
       </c>
-      <c r="S6" s="13">
+      <c r="T15" s="14">
         <v>700</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="U15" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="V15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" s="14"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
+      <c r="A16" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X6" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14">
+        <v>1</v>
+      </c>
+      <c r="S16" s="14">
+        <v>20</v>
+      </c>
+      <c r="T16" s="14">
+        <v>700</v>
+      </c>
+      <c r="U16" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="V16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" s="14"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12">
+    <row r="17" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13">
+      <c r="G17" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14">
         <v>3</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14">
         <v>1</v>
       </c>
-      <c r="R7" s="13">
+      <c r="S17" s="14">
         <v>20</v>
       </c>
-      <c r="S7" s="13">
+      <c r="T17" s="14">
+        <v>300</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" s="14"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14">
+        <v>1</v>
+      </c>
+      <c r="S18" s="14">
+        <v>20</v>
+      </c>
+      <c r="T18" s="14">
         <v>700</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="U18" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" s="14"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
+      <c r="A19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X7" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14">
+        <v>1</v>
+      </c>
+      <c r="S19" s="14">
+        <v>20</v>
+      </c>
+      <c r="T19" s="14">
+        <v>5000</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19" s="14"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
-      <c r="A8" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:25">
+      <c r="A20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="F20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14">
+        <v>1</v>
+      </c>
+      <c r="S20" s="14">
+        <v>20</v>
+      </c>
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="13" t="s">
+      <c r="V20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20" s="14"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
+      <c r="A21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13">
+      <c r="G21" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14">
         <v>3</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14">
         <v>1</v>
       </c>
-      <c r="R8" s="13">
+      <c r="S21" s="14">
         <v>20</v>
       </c>
-      <c r="S8" s="13">
+      <c r="T21" s="14">
         <v>700</v>
       </c>
-      <c r="T8" s="13" t="s">
+      <c r="U21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21" s="14"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="381.5" customHeight="1" spans="1:25">
+      <c r="A22" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X8" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14">
+        <v>1</v>
+      </c>
+      <c r="S22" s="14">
+        <v>20</v>
+      </c>
+      <c r="T22" s="14">
+        <v>700</v>
+      </c>
+      <c r="U22" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y22" s="14"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A9" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
+    <row r="23" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
+      <c r="A23" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13">
+      <c r="G23" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14">
         <v>3</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14">
         <v>1</v>
       </c>
-      <c r="R9" s="13">
+      <c r="S23" s="14">
         <v>20</v>
       </c>
-      <c r="S9" s="13">
+      <c r="T23" s="14">
+        <v>1000</v>
+      </c>
+      <c r="U23" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" s="14"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="99.75" spans="1:25">
+      <c r="A24" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14">
+        <v>1</v>
+      </c>
+      <c r="S24" s="14">
+        <v>20</v>
+      </c>
+      <c r="T24" s="14">
+        <v>4000</v>
+      </c>
+      <c r="U24" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="V24" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24" s="14"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
+      <c r="A25" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14">
+        <v>1</v>
+      </c>
+      <c r="S25" s="14">
+        <v>20</v>
+      </c>
+      <c r="T25" s="14">
         <v>700</v>
       </c>
-      <c r="T9" s="13" t="s">
+      <c r="U25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" s="14"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:25">
+      <c r="A26" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X9" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14">
+        <v>1</v>
+      </c>
+      <c r="S26" s="14">
+        <v>20</v>
+      </c>
+      <c r="T26" s="14">
+        <v>700</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" s="14"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A10" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+    <row r="27" s="1" customFormat="1" ht="132.75" spans="1:25">
+      <c r="A27" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13">
+      <c r="G27" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14">
         <v>3</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14">
         <v>1</v>
       </c>
-      <c r="R10" s="13">
+      <c r="S27" s="14">
         <v>20</v>
       </c>
-      <c r="S10" s="13">
+      <c r="T27" s="14">
         <v>700</v>
       </c>
-      <c r="T10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X10" s="13"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="105" customHeight="1" spans="1:24">
-      <c r="A11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>1</v>
-      </c>
-      <c r="R11" s="13">
-        <v>20</v>
-      </c>
-      <c r="S11" s="13">
-        <v>700</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X11" s="13"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="154.5" customHeight="1" spans="1:24">
-      <c r="A12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>1</v>
-      </c>
-      <c r="R12" s="13">
-        <v>20</v>
-      </c>
-      <c r="S12" s="13">
-        <v>700</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X12" s="13"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
-      <c r="A13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>1</v>
-      </c>
-      <c r="R13" s="13">
-        <v>20</v>
-      </c>
-      <c r="S13" s="13">
-        <v>700</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X13" s="13"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
-      <c r="A14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="13">
-        <v>1</v>
-      </c>
-      <c r="R14" s="13">
-        <v>20</v>
-      </c>
-      <c r="S14" s="13">
-        <v>700</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X14" s="13"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
-      <c r="A15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>1</v>
-      </c>
-      <c r="R15" s="13">
-        <v>20</v>
-      </c>
-      <c r="S15" s="13">
-        <v>700</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X15" s="13"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="88.5" customHeight="1" spans="1:24">
-      <c r="A16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>1</v>
-      </c>
-      <c r="R16" s="13">
-        <v>20</v>
-      </c>
-      <c r="S16" s="13">
-        <v>700</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X16" s="13"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>1</v>
-      </c>
-      <c r="R17" s="13">
-        <v>20</v>
-      </c>
-      <c r="S17" s="13">
-        <v>700</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="13"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
-      <c r="A18" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>1</v>
-      </c>
-      <c r="R18" s="13">
-        <v>20</v>
-      </c>
-      <c r="S18" s="13">
-        <v>700</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X18" s="13"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A19" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>1</v>
-      </c>
-      <c r="R19" s="13">
-        <v>20</v>
-      </c>
-      <c r="S19" s="13">
-        <v>700</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X19" s="13"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A20" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="U27" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>1</v>
-      </c>
-      <c r="R20" s="13">
-        <v>20</v>
-      </c>
-      <c r="S20" s="13">
-        <v>700</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X20" s="13"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="105" customHeight="1" spans="1:24">
-      <c r="A21" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>1</v>
-      </c>
-      <c r="R21" s="13">
-        <v>20</v>
-      </c>
-      <c r="S21" s="13">
-        <v>700</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X21" s="13"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="204" customHeight="1" spans="1:24">
-      <c r="A22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>1</v>
-      </c>
-      <c r="R22" s="13">
-        <v>20</v>
-      </c>
-      <c r="S22" s="13">
-        <v>700</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X22" s="13"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="88.5" customHeight="1" spans="1:24">
-      <c r="A23" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>1</v>
-      </c>
-      <c r="R23" s="13">
-        <v>20</v>
-      </c>
-      <c r="S23" s="13">
-        <v>700</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X23" s="13"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
-      <c r="A24" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>1</v>
-      </c>
-      <c r="R24" s="13">
-        <v>20</v>
-      </c>
-      <c r="S24" s="13">
-        <v>700</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V24" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W24" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X24" s="13"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="72" customHeight="1" spans="1:24">
-      <c r="A25" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>1</v>
-      </c>
-      <c r="R25" s="13">
-        <v>20</v>
-      </c>
-      <c r="S25" s="13">
-        <v>700</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X25" s="13"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="72" customHeight="1" spans="1:24">
-      <c r="A26" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="13">
-        <v>1</v>
-      </c>
-      <c r="R26" s="13">
-        <v>20</v>
-      </c>
-      <c r="S26" s="13">
-        <v>700</v>
-      </c>
-      <c r="T26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W26" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X26" s="13"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="72" customHeight="1" spans="1:24">
-      <c r="A27" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>1</v>
-      </c>
-      <c r="R27" s="13">
-        <v>20</v>
-      </c>
-      <c r="S27" s="13">
-        <v>700</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="X27" s="13"/>
+      <c r="V27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="195">
   <si>
     <t>名字</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>被动，部分技能释放结束后,.会直接击退自身直径范围内300码的玩家，造成高额伤害。该技能只会出现在特定技能结束后</t>
     </r>
     <r>
@@ -391,6 +397,9 @@
     <t>abilities/creature/boss/creature_boss_5</t>
   </si>
   <si>
+    <t>radius 300</t>
+  </si>
+  <si>
     <t>creature_boss_6</t>
   </si>
   <si>
@@ -478,6 +487,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力2秒后开启提示，玩家必须在3秒内保持移动，如果停下不动则会受到天降雷电的打击造成高额伤害。</t>
     </r>
     <r>
@@ -536,9 +551,6 @@
     <t>abilities/creature/boss/creature_boss_9</t>
   </si>
   <si>
-    <t>radius 300</t>
-  </si>
-  <si>
     <t>creature_boss_10</t>
   </si>
   <si>
@@ -546,6 +558,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时1000码范围内会出现随机8个可回收垃圾和不可回收垃圾。
 倒计时10秒，玩家需要去拾取垃圾然后再到对应的区域去置放垃圾。触碰垃圾即可拾取垃圾，到指定区域即可自动卸载垃圾。
 分类3个垃圾以下，造成高额伤害。</t>
@@ -812,6 +830,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，然后跳向距离最远的玩家，落地造成高额范围伤害。伤害范围500码。</t>
     </r>
     <r>
@@ -833,6 +857,9 @@
     <t>abilities/creature/boss/creature_boss_17</t>
   </si>
   <si>
+    <t>radius 500</t>
+  </si>
+  <si>
     <t>creature_boss_18</t>
   </si>
   <si>
@@ -846,6 +873,9 @@
   </si>
   <si>
     <t>abilities/creature/boss/creature_boss_18</t>
+  </si>
+  <si>
+    <t>hp_pct 10</t>
   </si>
   <si>
     <t>creature_boss_19</t>
@@ -865,6 +895,9 @@
     <t>abilities/creature/boss/creature_boss_19</t>
   </si>
   <si>
+    <t>duration 20</t>
+  </si>
+  <si>
     <t>creature_boss_20</t>
   </si>
   <si>
@@ -872,6 +905,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，为每一名玩家套上一个盾（可以抵挡该技能攻击伤害的90%），根据玩家最大数量进行攻击，比如4个玩家开局，无论现阶段存活多少玩家，boss该次技能会拥有4次攻击，每次攻击造成高额伤害</t>
     </r>
     <r>
@@ -915,6 +954,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，boss会随机抽取一名玩家的灵魂在玩家面前前，并对其造成持续高额伤害</t>
     </r>
     <r>
@@ -941,10 +986,13 @@
     <t>初始蓄力阶段boss无敌。
 俄洛伊抽取灵魂的技能。
 灵魂无敌,存在则持续扣血
-特效为：艾欧饰品【祭坛灵球】的1技能特效。</t>
+特效为：奶绿A杖</t>
   </si>
   <si>
     <t>abilities/creature/boss/creature_boss_21</t>
+  </si>
+  <si>
+    <t>distance 1000</t>
   </si>
   <si>
     <t>creature_boss_22</t>
@@ -991,6 +1039,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，boss会将所有玩家强制拉取目标玩家位置到一起（范围300码内），并对每一名玩家进行1次天降打击，打击延时3秒。打击范围直径300码，打击伤害可叠加，每多1次打击伤害，伤害提高25%</t>
     </r>
     <r>
@@ -1274,13 +1328,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2936,19 +2990,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1AE3D0DB-363F-4FEA-B4E0-6460F2F528F0}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F40E7BB-9685-48EC-9422-729914F07F5C}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{F8D31A22-4DF1-4BD8-B61B-B065C7B10857}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{135C33B9-43E5-409F-BFD9-35CC91306630}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{FD2B0729-00CF-4039-996D-05F1A272F112}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C61F6E69-3842-43E2-B1B7-621D4A5E4269}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -2960,7 +3014,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B36140D2-2823-4CA6-86B0-A2BB927C2582}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{311B9CE2-81DA-45FD-85A9-01EFD5FCD5C5}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -2974,7 +3028,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DA9E77EE-B3C1-4F6C-8B75-69596E73E041}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0645742D-FDF9-41ED-877D-62DC2075BCBB}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -3286,10 +3340,10 @@
   <sheetPr/>
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3742,16 +3796,18 @@
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="14">
@@ -3779,16 +3835,16 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
       <c r="A8" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -3797,17 +3853,17 @@
         <v>46</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -3844,16 +3900,16 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A9" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -3862,14 +3918,14 @@
         <v>46</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -3905,16 +3961,16 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A10" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -3923,7 +3979,7 @@
         <v>46</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
@@ -3964,16 +4020,16 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
       <c r="A11" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -3982,14 +4038,14 @@
         <v>46</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -4049,10 +4105,10 @@
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="K12" s="14" t="s">
         <v>114</v>
@@ -4466,9 +4522,11 @@
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
@@ -4485,7 +4543,7 @@
         <v>20</v>
       </c>
       <c r="T19" s="14">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="U19" s="25" t="s">
         <v>71</v>
@@ -4503,16 +4561,16 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:25">
       <c r="A20" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -4521,13 +4579,15 @@
         <v>46</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="14"/>
+        <v>157</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -4562,16 +4622,16 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
       <c r="A21" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -4580,13 +4640,15 @@
         <v>46</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="14" t="s">
+        <v>163</v>
+      </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -4621,16 +4683,16 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="381.5" customHeight="1" spans="1:25">
       <c r="A22" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -4639,7 +4701,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
@@ -4680,16 +4742,16 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
       <c r="A23" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E23" s="13">
         <v>0</v>
@@ -4698,13 +4760,15 @@
         <v>46</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -4739,16 +4803,16 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="99.75" spans="1:25">
       <c r="A24" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E24" s="13">
         <v>0</v>
@@ -4757,13 +4821,15 @@
         <v>46</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
@@ -4798,16 +4864,16 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
       <c r="A25" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -4816,13 +4882,15 @@
         <v>46</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -4857,16 +4925,16 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:25">
       <c r="A26" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -4875,7 +4943,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
@@ -4916,16 +4984,16 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="132.75" spans="1:25">
       <c r="A27" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E27" s="13">
         <v>0</v>
@@ -4934,7 +5002,7 @@
         <v>46</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">

--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="204">
   <si>
     <t>名字</t>
   </si>
@@ -193,10 +193,10 @@
     <t>dmg_max_hp 20</t>
   </si>
   <si>
-    <t>sector_angle 30</t>
-  </si>
-  <si>
-    <t>sector_distance 1000</t>
+    <t>sector_angle 60</t>
+  </si>
+  <si>
+    <t>sector_distance 2000</t>
   </si>
   <si>
     <t>movespeed_pct -99</t>
@@ -830,13 +830,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓄力3秒，然后跳向距离最远的玩家，落地造成高额范围伤害。伤害范围500码。</t>
+      <t>蓄力3秒提示,然后1秒后跳向距离最远的玩家，落地造成高额范围伤害。伤害范围500码。</t>
     </r>
     <r>
       <rPr>
@@ -954,12 +948,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，boss会随机抽取一名玩家的灵魂在玩家面前前，并对其造成持续高额伤害</t>
     </r>
     <r>
@@ -986,7 +974,8 @@
     <t>初始蓄力阶段boss无敌。
 俄洛伊抽取灵魂的技能。
 灵魂无敌,存在则持续扣血
-特效为：奶绿A杖</t>
+特效为：奶绿A杖
+拉断线条之后,根据剩余时间眩晕BOSS对应秒数</t>
   </si>
   <si>
     <t>abilities/creature/boss/creature_boss_21</t>
@@ -1070,6 +1059,12 @@
     <t>abilities/creature/boss/creature_boss_23</t>
   </si>
   <si>
+    <t>dmg_max_hp 30</t>
+  </si>
+  <si>
+    <t>bonus_dmg 25</t>
+  </si>
+  <si>
     <t>creature_boss_24</t>
   </si>
   <si>
@@ -1077,13 +1072,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓄力3秒，会在boss自身范围500码以内随机位置出现道具【圣盾】，5秒之后会对全屏造成高额伤害</t>
+      <t>蓄力3秒，会在boss自身范围500码以内随机位置出现道具【圣盾】，10秒之后会对全屏造成高额伤害</t>
     </r>
     <r>
       <rPr>
@@ -1116,6 +1105,18 @@
     <t>abilities/creature/boss/creature_boss_24</t>
   </si>
   <si>
+    <t>dmg_max_hp 100</t>
+  </si>
+  <si>
+    <t>shield_redunction 70</t>
+  </si>
+  <si>
+    <t>sector_distance 500</t>
+  </si>
+  <si>
+    <t>shield_range 500</t>
+  </si>
+  <si>
     <t>creature_boss_25</t>
   </si>
   <si>
@@ -1136,6 +1137,15 @@
   </si>
   <si>
     <t>abilities/creature/boss/creature_boss_25</t>
+  </si>
+  <si>
+    <t>spear_stun 4</t>
+  </si>
+  <si>
+    <t>wave_width 200</t>
+  </si>
+  <si>
+    <t>wave_distance 3000</t>
   </si>
 </sst>
 </file>
@@ -1328,13 +1338,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color indexed="10"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="10"/>
+      <color indexed="8"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2990,19 +3000,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F40E7BB-9685-48EC-9422-729914F07F5C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{67B3D8CB-4123-4E4F-93C7-EBCAD96510CD}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{135C33B9-43E5-409F-BFD9-35CC91306630}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{399829F4-6B6A-4BED-837E-59D2692D45E2}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C61F6E69-3842-43E2-B1B7-621D4A5E4269}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A1A00E36-C7A6-4B48-805B-1C92DD048BA4}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -3014,7 +3024,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{311B9CE2-81DA-45FD-85A9-01EFD5FCD5C5}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{06F66169-A326-4370-B76A-0D64FB71329D}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -3028,7 +3038,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0645742D-FDF9-41ED-877D-62DC2075BCBB}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{54798ABA-967C-4A23-8571-CAA078A06490}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -3340,10 +3350,10 @@
   <sheetPr/>
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3359,7 +3369,7 @@
     <col min="10" max="10" width="19.5083333333333" customWidth="1"/>
     <col min="11" max="11" width="21.0083333333333" customWidth="1"/>
     <col min="12" max="12" width="20.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="11.3416666666667" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
     <col min="14" max="14" width="4.24166666666667" customWidth="1"/>
     <col min="15" max="15" width="6.34166666666667" customWidth="1"/>
     <col min="16" max="16" width="16.0083333333333" customWidth="1"/>
@@ -3561,7 +3571,7 @@
         <v>20</v>
       </c>
       <c r="T3" s="14">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="U3" s="25" t="s">
         <v>52</v>
@@ -3985,7 +3995,9 @@
       <c r="I10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
@@ -4535,7 +4547,9 @@
       <c r="P19" s="14">
         <v>3</v>
       </c>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="14">
+        <v>1</v>
+      </c>
       <c r="R19" s="14">
         <v>1</v>
       </c>
@@ -4546,7 +4560,7 @@
         <v>1000</v>
       </c>
       <c r="U19" s="25" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V19" s="14" t="s">
         <v>53</v>
@@ -4716,7 +4730,9 @@
       <c r="P22" s="14">
         <v>3</v>
       </c>
-      <c r="Q22" s="14"/>
+      <c r="Q22" s="14">
+        <v>12</v>
+      </c>
       <c r="R22" s="14">
         <v>1</v>
       </c>
@@ -4727,7 +4743,7 @@
         <v>700</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V22" s="14" t="s">
         <v>53</v>
@@ -4769,7 +4785,9 @@
       <c r="J23" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="K23" s="14"/>
+      <c r="K23" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -4886,12 +4904,14 @@
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
@@ -4907,7 +4927,7 @@
         <v>20</v>
       </c>
       <c r="T25" s="14">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="U25" s="25" t="s">
         <v>71</v>
@@ -4925,16 +4945,16 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:25">
       <c r="A26" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -4943,22 +4963,32 @@
         <v>46</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+        <v>192</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14">
         <v>3</v>
       </c>
-      <c r="Q26" s="14"/>
+      <c r="Q26" s="14">
+        <v>10</v>
+      </c>
       <c r="R26" s="14">
         <v>1</v>
       </c>
@@ -4966,10 +4996,10 @@
         <v>20</v>
       </c>
       <c r="T26" s="14">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="V26" s="14" t="s">
         <v>53</v>
@@ -4984,16 +5014,16 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="132.75" spans="1:25">
       <c r="A27" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E27" s="13">
         <v>0</v>
@@ -5002,22 +5032,32 @@
         <v>46</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="J27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>203</v>
+      </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14">
         <v>3</v>
       </c>
-      <c r="Q27" s="14"/>
+      <c r="Q27" s="14">
+        <v>10</v>
+      </c>
       <c r="R27" s="14">
         <v>1</v>
       </c>
@@ -5028,7 +5068,7 @@
         <v>700</v>
       </c>
       <c r="U27" s="25" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="V27" s="14" t="s">
         <v>53</v>

--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="202">
   <si>
     <t>名字</t>
   </si>
@@ -314,7 +314,7 @@
     <t>thunder_count 3</t>
   </si>
   <si>
-    <t>thunder_interval 1.5</t>
+    <t>thunder_interval 1</t>
   </si>
   <si>
     <t>duration 5</t>
@@ -830,6 +830,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒提示,然后1秒后跳向距离最远的玩家，落地造成高额范围伤害。伤害范围500码。</t>
     </r>
     <r>
@@ -948,6 +954,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，boss会随机抽取一名玩家的灵魂在玩家面前前，并对其造成持续高额伤害</t>
     </r>
     <r>
@@ -1072,6 +1084,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>蓄力3秒，会在boss自身范围500码以内随机位置出现道具【圣盾】，10秒之后会对全屏造成高额伤害</t>
     </r>
     <r>
@@ -1109,12 +1127,6 @@
   </si>
   <si>
     <t>shield_redunction 70</t>
-  </si>
-  <si>
-    <t>sector_distance 500</t>
-  </si>
-  <si>
-    <t>shield_range 500</t>
   </si>
   <si>
     <t>creature_boss_25</t>
@@ -3000,19 +3012,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{67B3D8CB-4123-4E4F-93C7-EBCAD96510CD}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{86CA850D-6B0C-4415-BD59-65E555F07FC2}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{399829F4-6B6A-4BED-837E-59D2692D45E2}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{53720C9F-90AC-4B69-8747-5F9D721BD8F7}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A1A00E36-C7A6-4B48-805B-1C92DD048BA4}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2D55BED3-0E24-4598-8718-3F5EB1E814F7}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -3024,7 +3036,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{06F66169-A326-4370-B76A-0D64FB71329D}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{62E70987-8BE3-41B3-B6F2-7C6A4B544408}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -3038,7 +3050,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{54798ABA-967C-4A23-8571-CAA078A06490}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C271C254-F528-48FF-80AE-5E1715D27622}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -3353,7 +3365,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4976,11 +4988,9 @@
         <v>49</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>195</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14">
@@ -5014,16 +5024,16 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="132.75" spans="1:25">
       <c r="A27" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="D27" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="E27" s="13">
         <v>0</v>
@@ -5032,7 +5042,7 @@
         <v>46</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
@@ -5042,13 +5052,13 @@
         <v>77</v>
       </c>
       <c r="K27" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>203</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -5065,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="T27" s="14">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="U27" s="25" t="s">
         <v>78</v>

--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="203">
   <si>
     <t>名字</t>
   </si>
@@ -273,7 +273,7 @@
     <t>line_width 50</t>
   </si>
   <si>
-    <t>line_distance 1000</t>
+    <t>line_distance 1500</t>
   </si>
   <si>
     <t>creature_boss_3</t>
@@ -311,7 +311,7 @@
     <t>thunder_radius 200</t>
   </si>
   <si>
-    <t>thunder_count 3</t>
+    <t>thunder_count 12</t>
   </si>
   <si>
     <t>thunder_interval 1</t>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>line_width 300</t>
-  </si>
-  <si>
-    <t>line_distance 900</t>
   </si>
   <si>
     <t>creature_boss_7</t>
@@ -820,7 +817,7 @@
     <t>dmg_max_hp 45</t>
   </si>
   <si>
-    <t>radius 700</t>
+    <t>radius 1500</t>
   </si>
   <si>
     <t>creature_boss_17</t>
@@ -857,7 +854,7 @@
     <t>abilities/creature/boss/creature_boss_17</t>
   </si>
   <si>
-    <t>radius 500</t>
+    <t>radius 350</t>
   </si>
   <si>
     <t>creature_boss_18</t>
@@ -1033,6 +1030,9 @@
     <t>abilities/creature/boss/creature_boss_22</t>
   </si>
   <si>
+    <t>radius 500</t>
+  </si>
+  <si>
     <t>creature_boss_23</t>
   </si>
   <si>
@@ -1129,6 +1129,9 @@
     <t>shield_redunction 70</t>
   </si>
   <si>
+    <t>sector_distance 1000</t>
+  </si>
+  <si>
     <t>creature_boss_25</t>
   </si>
   <si>
@@ -1157,7 +1160,7 @@
     <t>wave_width 200</t>
   </si>
   <si>
-    <t>wave_distance 3000</t>
+    <t>wave_distance 4000</t>
   </si>
 </sst>
 </file>
@@ -3012,19 +3015,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{86CA850D-6B0C-4415-BD59-65E555F07FC2}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{28541EE5-A704-4C19-B57E-8ADEFA5FD3B4}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{53720C9F-90AC-4B69-8747-5F9D721BD8F7}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{38F89F04-46CB-4580-B01D-D077D6D1CEA7}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2D55BED3-0E24-4598-8718-3F5EB1E814F7}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9F174463-1711-4196-A7F2-92F9EA18009B}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -3036,7 +3039,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{62E70987-8BE3-41B3-B6F2-7C6A4B544408}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{1F687298-3C4A-4F3B-8251-E465C5743EAC}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -3050,7 +3053,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C271C254-F528-48FF-80AE-5E1715D27622}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0F77D702-CEE0-4F6F-A217-A4AB297DDD22}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -3362,10 +3365,10 @@
   <sheetPr/>
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I6" sqref="I6"/>
+      <selection pane="topRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3648,7 +3651,7 @@
         <v>20</v>
       </c>
       <c r="T4" s="14">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="U4" s="25" t="s">
         <v>52</v>
@@ -3715,7 +3718,7 @@
         <v>20</v>
       </c>
       <c r="T5" s="14">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="U5" s="25" t="s">
         <v>71</v>
@@ -3885,7 +3888,7 @@
         <v>90</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
@@ -3904,7 +3907,7 @@
         <v>20</v>
       </c>
       <c r="T8" s="14">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="U8" s="25" t="s">
         <v>52</v>
@@ -3922,16 +3925,16 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -3940,14 +3943,14 @@
         <v>46</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -3965,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="T9" s="14">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="25" t="s">
         <v>71</v>
@@ -3983,16 +3986,16 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -4001,14 +4004,14 @@
         <v>46</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -4026,7 +4029,7 @@
         <v>20</v>
       </c>
       <c r="T10" s="14">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="U10" s="25" t="s">
         <v>71</v>
@@ -4044,16 +4047,16 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
       <c r="A11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -4062,7 +4065,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
@@ -4089,7 +4092,7 @@
         <v>20</v>
       </c>
       <c r="T11" s="14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="25" t="s">
         <v>78</v>
@@ -4107,16 +4110,16 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="183.5" customHeight="1" spans="1:25">
       <c r="A12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -4125,17 +4128,17 @@
         <v>46</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>84</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -4154,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="T12" s="14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="25" t="s">
         <v>78</v>
@@ -4172,13 +4175,13 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>116</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>117</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13">
@@ -4188,7 +4191,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
@@ -4214,7 +4217,7 @@
         <v>700</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>53</v>
@@ -4229,13 +4232,13 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
       <c r="A14" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>122</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13">
@@ -4245,7 +4248,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
@@ -4271,7 +4274,7 @@
         <v>700</v>
       </c>
       <c r="U14" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V14" s="14" t="s">
         <v>53</v>
@@ -4286,13 +4289,13 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A15" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13">
@@ -4302,7 +4305,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
@@ -4328,7 +4331,7 @@
         <v>700</v>
       </c>
       <c r="U15" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V15" s="14" t="s">
         <v>53</v>
@@ -4343,13 +4346,13 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
       <c r="A16" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13">
@@ -4359,7 +4362,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14" t="s">
@@ -4385,7 +4388,7 @@
         <v>700</v>
       </c>
       <c r="U16" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V16" s="14" t="s">
         <v>53</v>
@@ -4400,16 +4403,16 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A17" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>135</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -4418,17 +4421,17 @@
         <v>46</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -4445,7 +4448,7 @@
         <v>20</v>
       </c>
       <c r="T17" s="14">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U17" s="25" t="s">
         <v>71</v>
@@ -4463,16 +4466,16 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
@@ -4481,14 +4484,14 @@
         <v>46</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -4506,7 +4509,7 @@
         <v>20</v>
       </c>
       <c r="T18" s="14">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="U18" s="25" t="s">
         <v>71</v>
@@ -4524,16 +4527,16 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -4542,14 +4545,14 @@
         <v>46</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4569,7 +4572,7 @@
         <v>20</v>
       </c>
       <c r="T19" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="U19" s="25" t="s">
         <v>78</v>
@@ -4587,16 +4590,16 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:25">
       <c r="A20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -4605,11 +4608,11 @@
         <v>46</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>70</v>
@@ -4648,16 +4651,16 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
       <c r="A21" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -4666,14 +4669,14 @@
         <v>46</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4691,7 +4694,7 @@
         <v>20</v>
       </c>
       <c r="T21" s="14">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="U21" s="25" t="s">
         <v>71</v>
@@ -4709,16 +4712,16 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="381.5" customHeight="1" spans="1:25">
       <c r="A22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="16" t="s">
         <v>166</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -4727,7 +4730,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
@@ -4752,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="T22" s="14">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="U22" s="25" t="s">
         <v>78</v>
@@ -4770,16 +4773,16 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
       <c r="A23" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="E23" s="13">
         <v>0</v>
@@ -4788,17 +4791,17 @@
         <v>46</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -4815,7 +4818,7 @@
         <v>20</v>
       </c>
       <c r="T23" s="14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="25" t="s">
         <v>71</v>
@@ -4833,16 +4836,16 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="99.75" spans="1:25">
       <c r="A24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="C24" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="D24" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="E24" s="13">
         <v>0</v>
@@ -4851,14 +4854,14 @@
         <v>46</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -4876,10 +4879,10 @@
         <v>20</v>
       </c>
       <c r="T24" s="14">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V24" s="14" t="s">
         <v>53</v>
@@ -4939,7 +4942,7 @@
         <v>20</v>
       </c>
       <c r="T25" s="14">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U25" s="25" t="s">
         <v>71</v>
@@ -4988,7 +4991,7 @@
         <v>49</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -5006,7 +5009,7 @@
         <v>20</v>
       </c>
       <c r="T26" s="14">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="U26" s="25" t="s">
         <v>78</v>
@@ -5024,16 +5027,16 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="132.75" spans="1:25">
       <c r="A27" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E27" s="13">
         <v>0</v>
@@ -5042,7 +5045,7 @@
         <v>46</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
@@ -5052,13 +5055,13 @@
         <v>77</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
@@ -5075,7 +5078,7 @@
         <v>20</v>
       </c>
       <c r="T27" s="14">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="U27" s="25" t="s">
         <v>78</v>

--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="boss" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="199">
   <si>
     <t>名字</t>
   </si>
@@ -603,9 +603,6 @@
     <t>count 8</t>
   </si>
   <si>
-    <t>creature_boss_11</t>
-  </si>
-  <si>
     <t>冰○</t>
   </si>
   <si>
@@ -662,9 +659,6 @@
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
   </si>
   <si>
-    <t>creature_boss_12</t>
-  </si>
-  <si>
     <t>火△</t>
   </si>
   <si>
@@ -691,9 +685,6 @@
     <t>abilities/creature/boss/creature_boss_12</t>
   </si>
   <si>
-    <t>creature_boss_13</t>
-  </si>
-  <si>
     <t>雷□</t>
   </si>
   <si>
@@ -727,9 +718,6 @@
   </si>
   <si>
     <t>abilities/creature/boss/creature_boss_13</t>
-  </si>
-  <si>
-    <t>creature_boss_14</t>
   </si>
   <si>
     <t>风◇</t>
@@ -3015,19 +3003,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{28541EE5-A704-4C19-B57E-8ADEFA5FD3B4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{60C214B1-5EEA-4BEC-9B1C-02FB01FAFD60}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{38F89F04-46CB-4580-B01D-D077D6D1CEA7}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E5F0F6E6-8B23-4316-9800-F9D2B09D322A}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9F174463-1711-4196-A7F2-92F9EA18009B}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9E1B1200-E44C-4D24-B83D-BC56B377C893}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -3039,7 +3027,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{1F687298-3C4A-4F3B-8251-E465C5743EAC}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{2C2D4219-0D48-4818-9951-1BF8DCE21611}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -3053,7 +3041,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{0F77D702-CEE0-4F6F-A217-A4AB297DDD22}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{9C45E046-2BD0-414F-8367-6A8CA6F3EE6A}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -3365,10 +3353,10 @@
   <sheetPr/>
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T23" sqref="T23"/>
+      <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4174,14 +4162,12 @@
       <c r="Y12" s="14"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="13">
@@ -4191,7 +4177,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
@@ -4217,7 +4203,7 @@
         <v>700</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V13" s="14" t="s">
         <v>53</v>
@@ -4231,14 +4217,12 @@
       <c r="Y13" s="14"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>121</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="13">
@@ -4248,7 +4232,7 @@
         <v>46</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
@@ -4274,7 +4258,7 @@
         <v>700</v>
       </c>
       <c r="U14" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V14" s="14" t="s">
         <v>53</v>
@@ -4288,14 +4272,12 @@
       <c r="Y14" s="14"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A15" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="A15" s="19"/>
       <c r="B15" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="13">
@@ -4305,7 +4287,7 @@
         <v>46</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
@@ -4331,7 +4313,7 @@
         <v>700</v>
       </c>
       <c r="U15" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V15" s="14" t="s">
         <v>53</v>
@@ -4345,14 +4327,12 @@
       <c r="Y15" s="14"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
-      <c r="A16" s="19" t="s">
-        <v>127</v>
-      </c>
+      <c r="A16" s="19"/>
       <c r="B16" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="13">
@@ -4362,7 +4342,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14" t="s">
@@ -4388,7 +4368,7 @@
         <v>700</v>
       </c>
       <c r="U16" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V16" s="14" t="s">
         <v>53</v>
@@ -4403,16 +4383,16 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A17" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -4421,17 +4401,17 @@
         <v>46</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
@@ -4466,16 +4446,16 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A18" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
@@ -4484,14 +4464,14 @@
         <v>46</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -4527,16 +4507,16 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
       <c r="A19" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -4545,14 +4525,14 @@
         <v>46</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -4590,16 +4570,16 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:25">
       <c r="A20" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -4608,11 +4588,11 @@
         <v>46</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>70</v>
@@ -4651,16 +4631,16 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
       <c r="A21" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -4669,14 +4649,14 @@
         <v>46</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -4712,16 +4692,16 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="381.5" customHeight="1" spans="1:25">
       <c r="A22" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -4730,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
@@ -4773,16 +4753,16 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
       <c r="A23" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E23" s="13">
         <v>0</v>
@@ -4791,17 +4771,17 @@
         <v>46</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
@@ -4836,16 +4816,16 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="99.75" spans="1:25">
       <c r="A24" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E24" s="13">
         <v>0</v>
@@ -4854,14 +4834,14 @@
         <v>46</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
         <v>48</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -4882,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V24" s="14" t="s">
         <v>53</v>
@@ -4897,16 +4877,16 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
       <c r="A25" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -4915,17 +4895,17 @@
         <v>46</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>84</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
@@ -4960,16 +4940,16 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:25">
       <c r="A26" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -4978,20 +4958,20 @@
         <v>46</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>49</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -5027,16 +5007,16 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="132.75" spans="1:25">
       <c r="A27" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E27" s="13">
         <v>0</v>
@@ -5045,7 +5025,7 @@
         <v>46</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
@@ -5055,13 +5035,13 @@
         <v>77</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>

--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -65,7 +65,7 @@
     <t>冷却时间</t>
   </si>
   <si>
-    <t>施法距离</t>
+    <t>警告圈范围</t>
   </si>
   <si>
     <t>类型</t>
@@ -776,18 +776,12 @@
   </si>
   <si>
     <r>
+      <t>蓄力3秒，然后重锤地板，对自身范围直径700码的玩家造成高额伤害，且附带击飞效果并眩晕3秒。</t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蓄力3秒，然后重锤地板，对自身范围直径700码的玩家造成高额伤害，且附带击飞效果并眩晕3秒。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
@@ -3003,19 +2997,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{60C214B1-5EEA-4BEC-9B1C-02FB01FAFD60}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{54F0EBE9-8E55-4120-9EB6-4DCAD5A2C06E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E5F0F6E6-8B23-4316-9800-F9D2B09D322A}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{F1C63DAC-5A48-44A2-AE53-B81135414CBE}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9E1B1200-E44C-4D24-B83D-BC56B377C893}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{00F65F7A-E42E-46E0-9C2A-60BE67EC4AAC}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -3027,7 +3021,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{2C2D4219-0D48-4818-9951-1BF8DCE21611}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{4413F208-53C2-4C7D-9B9B-3E3C49206499}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -3041,7 +3035,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{9C45E046-2BD0-414F-8367-6A8CA6F3EE6A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{83121482-62F5-414F-9EFC-F0AB81393822}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -3354,9 +3348,9 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B16" sqref="B16"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/abilities/creature/boss.xlsx
+++ b/excels/abilities/creature/boss.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="203">
   <si>
     <t>名字</t>
   </si>
@@ -155,6 +155,12 @@
     <t>AbilityUnitTargetFlags</t>
   </si>
   <si>
+    <t>AbilityCastAnimation</t>
+  </si>
+  <si>
+    <t>AbilityChannelAnimation</t>
+  </si>
+  <si>
     <t>creature_boss_1</t>
   </si>
   <si>
@@ -162,12 +168,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，朝前方30°扇形释放咆哮，造成大量伤害并减速99%。技能长度1000码。</t>
     </r>
     <r>
@@ -214,6 +214,9 @@
     <t>DOTA_UNIT_TARGET_HERO | DOTA_UNIT_TARGET_BASIC</t>
   </si>
   <si>
+    <t>ACT_DOTA_CAST_ABILITY_1</t>
+  </si>
+  <si>
     <t>creature_boss_2</t>
   </si>
   <si>
@@ -221,12 +224,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力2秒，朝前方30°扇形释放持续火焰灼烧，每秒造成大量伤害（</t>
     </r>
     <r>
@@ -283,12 +280,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，对自身直径800码范围内的所有区域随机降下雷霆打击，雷霆打击的范围为直径200码。每秒3次雷霆。持续5秒</t>
     </r>
     <r>
@@ -330,12 +321,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，对自身直径1000码范围内敌人强吸引，并每秒造成伤害，距离boss越近受到伤害越高。持续4秒</t>
     </r>
     <r>
@@ -370,12 +355,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>被动，部分技能释放结束后,.会直接击退自身直径范围内300码的玩家，造成高额伤害。该技能只会出现在特定技能结束后</t>
     </r>
     <r>
@@ -407,12 +386,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力2秒，向前方宽300码，长900码进行灵魂吸取，不断将敌人吸取到技能释放点，同时造成伤害并扣除一定蓝量，持续4秒。</t>
     </r>
     <r>
@@ -444,12 +417,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力2秒后开启提示，玩家必须在3秒内保持原地不动，如果动了则会受到天降雷电的打击造成高额伤害。</t>
     </r>
     <r>
@@ -484,12 +451,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力2秒后开启提示，玩家必须在3秒内保持移动，如果停下不动则会受到天降雷电的打击造成高额伤害。</t>
     </r>
     <r>
@@ -518,12 +479,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时玩家上会出现可回收垃圾和不可回收垃圾随机一个图标。
 倒计时10秒，玩家需要在10秒内跑到指定分类区域里去等计时结束。如果10秒后有玩家没有进指定区域，或者进错区域，则造成高额伤害。</t>
     </r>
@@ -555,12 +510,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力1秒，召唤两个垃圾区域（范围直径300码）在自身周围直径1000码内的任意位置，同时1000码范围内会出现随机8个可回收垃圾和不可回收垃圾。
 倒计时10秒，玩家需要去拾取垃圾然后再到对应的区域去置放垃圾。触碰垃圾即可拾取垃圾，到指定区域即可自动卸载垃圾。
 分类3个垃圾以下，造成高额伤害。</t>
@@ -607,12 +556,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>boss头上出现○提示，延迟3秒后 对boss自身范围400码以外至800码以内</t>
     </r>
     <r>
@@ -659,16 +602,13 @@
     <t>DOTA_ABILITY_BEHAVIOR_UNIT_TARGET</t>
   </si>
   <si>
+    <t>ACT_DOTA_GENERIC_CHANNEL_1</t>
+  </si>
+  <si>
     <t>火△</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>boss头上出现△提示，延迟3秒后 以boss自身面向为12点方向，并向12点方向、4点方向、8点方向释放60°扇形区域造成高额伤害。技能距离800码</t>
     </r>
     <r>
@@ -689,12 +629,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>boss头上出现□提示，延迟3秒后 以boss自身范围直径200码开始，每隔200码区域造成高额伤害</t>
     </r>
     <r>
@@ -724,12 +658,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>boss头上出现◇提示，延迟3秒后 boss自身距离500码区域出现菱形风墙，风墙跟着boss移动，同时boss会上下左右随机移动5秒钟，并对触碰到风墙的玩家造成高额伤害。
 风墙宽度100码。</t>
     </r>
@@ -809,12 +737,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒提示,然后1秒后跳向距离最远的玩家，落地造成高额范围伤害。伤害范围500码。</t>
     </r>
     <r>
@@ -884,12 +806,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，为每一名玩家套上一个盾（可以抵挡该技能攻击伤害的90%），根据玩家最大数量进行攻击，比如4个玩家开局，无论现阶段存活多少玩家，boss该次技能会拥有4次攻击，每次攻击造成高额伤害</t>
     </r>
     <r>
@@ -933,12 +849,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，boss会随机抽取一名玩家的灵魂在玩家面前前，并对其造成持续高额伤害</t>
     </r>
     <r>
@@ -982,12 +892,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，boss会锁定一个玩家，在3秒后实施沉痛打击，打击范围直径500码。该伤害可分摊，每多一名玩家分摊，伤害降低25%。</t>
     </r>
     <r>
@@ -1022,12 +926,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，boss会将所有玩家强制拉取目标玩家位置到一起（范围300码内），并对每一名玩家进行1次天降打击，打击延时3秒。打击范围直径300码，打击伤害可叠加，每多1次打击伤害，伤害提高25%</t>
     </r>
     <r>
@@ -1066,12 +964,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>蓄力3秒，会在boss自身范围500码以内随机位置出现道具【圣盾】，10秒之后会对全屏造成高额伤害</t>
     </r>
     <r>
@@ -1155,7 +1047,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,6 +1078,26 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1802,142 +1714,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2009,6 +1922,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -2997,19 +2928,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{54F0EBE9-8E55-4120-9EB6-4DCAD5A2C06E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F1A07B66-B298-4D9F-BE72-9C6EEA187478}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{F1C63DAC-5A48-44A2-AE53-B81135414CBE}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{C5173813-76DF-4A7A-A880-D896FD78C1DE}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="totalRow" dxfId="5"/>
       <tableStyleElement type="firstColumn" dxfId="4"/>
       <tableStyleElement type="lastColumn" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{00F65F7A-E42E-46E0-9C2A-60BE67EC4AAC}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2612DE55-E0EA-445C-8888-C5C3A7D061EB}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -3021,7 +2952,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="9"/>
       <tableStyleElement type="lastTotalCell" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{4413F208-53C2-4C7D-9B9B-3E3C49206499}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{A915C882-CB53-43AC-AC40-10A2F33AB389}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
@@ -3035,7 +2966,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="19"/>
       <tableStyleElement type="lastTotalCell" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{83121482-62F5-414F-9EFC-F0AB81393822}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{BC206269-ADAC-4329-9596-D17463201397}">
       <tableStyleElement type="wholeTable" dxfId="36"/>
       <tableStyleElement type="headerRow" dxfId="35"/>
       <tableStyleElement type="totalRow" dxfId="34"/>
@@ -3345,28 +3276,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="24.3416666666667" customWidth="1"/>
-    <col min="3" max="4" width="40.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.175" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.175" style="3" customWidth="1"/>
     <col min="6" max="6" width="23.175" customWidth="1"/>
     <col min="7" max="7" width="34.8416666666667" customWidth="1"/>
     <col min="8" max="8" width="15.175" customWidth="1"/>
-    <col min="9" max="9" width="15.675" customWidth="1"/>
-    <col min="10" max="10" width="19.5083333333333" customWidth="1"/>
-    <col min="11" max="11" width="21.0083333333333" customWidth="1"/>
-    <col min="12" max="12" width="20.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="9" max="9" width="17.675" customWidth="1"/>
+    <col min="10" max="10" width="20.675" customWidth="1"/>
+    <col min="11" max="12" width="21.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="20.175" customWidth="1"/>
     <col min="14" max="14" width="4.24166666666667" customWidth="1"/>
     <col min="15" max="15" width="6.34166666666667" customWidth="1"/>
     <col min="16" max="16" width="16.0083333333333" customWidth="1"/>
@@ -3379,1694 +3309,1816 @@
     <col min="23" max="23" width="30.8416666666667" customWidth="1"/>
     <col min="24" max="24" width="40.625" customWidth="1"/>
     <col min="25" max="25" width="22.0083333333333" customWidth="1"/>
+    <col min="26" max="26" width="26.875" customWidth="1"/>
+    <col min="27" max="27" width="29.3416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="28"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:25">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="2" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="Z2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="3" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="13">
+      <c r="C3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="14">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15">
+        <v>20</v>
+      </c>
+      <c r="T3" s="15">
+        <v>2000</v>
+      </c>
+      <c r="U3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="32"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+      <c r="A4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="G4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="J4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>5</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="15">
+        <v>20</v>
+      </c>
+      <c r="T4" s="15">
+        <v>1500</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="32"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+      <c r="A5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15">
+        <v>20</v>
+      </c>
+      <c r="T5" s="15">
+        <v>1500</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA5" s="32"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A6" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>4</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1</v>
+      </c>
+      <c r="S6" s="15">
+        <v>20</v>
+      </c>
+      <c r="T6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA6" s="32"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15">
+        <v>1</v>
+      </c>
+      <c r="S7" s="15">
+        <v>20</v>
+      </c>
+      <c r="T7" s="15">
+        <v>700</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA7" s="32"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+      <c r="A8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>4</v>
+      </c>
+      <c r="R8" s="15">
+        <v>1</v>
+      </c>
+      <c r="S8" s="15">
+        <v>20</v>
+      </c>
+      <c r="T8" s="15">
+        <v>1500</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" s="32"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15">
+        <v>1</v>
+      </c>
+      <c r="S9" s="15">
+        <v>20</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" s="32"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15">
+        <v>1</v>
+      </c>
+      <c r="S10" s="15">
+        <v>20</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA10" s="32"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:27">
+      <c r="A11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>10</v>
+      </c>
+      <c r="R11" s="15">
+        <v>1</v>
+      </c>
+      <c r="S11" s="15">
+        <v>20</v>
+      </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" s="32"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="183.5" customHeight="1" spans="1:27">
+      <c r="A12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>10</v>
+      </c>
+      <c r="R12" s="15">
+        <v>1</v>
+      </c>
+      <c r="S12" s="15">
+        <v>20</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" s="32"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A13" s="20"/>
+      <c r="B13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15">
+        <v>1</v>
+      </c>
+      <c r="S13" s="15">
+        <v>20</v>
+      </c>
+      <c r="T13" s="15">
+        <v>700</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA13" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="68" customHeight="1" spans="1:27">
+      <c r="A14" s="20"/>
+      <c r="B14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15">
+        <v>1</v>
+      </c>
+      <c r="S14" s="15">
+        <v>20</v>
+      </c>
+      <c r="T14" s="15">
+        <v>700</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA14" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A15" s="20"/>
+      <c r="B15" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15">
+        <v>20</v>
+      </c>
+      <c r="T15" s="15">
+        <v>700</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA15" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="101" customHeight="1" spans="1:27">
+      <c r="A16" s="20"/>
+      <c r="B16" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15">
+        <v>1</v>
+      </c>
+      <c r="S16" s="15">
+        <v>20</v>
+      </c>
+      <c r="T16" s="15">
+        <v>700</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA16" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A17" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15">
+        <v>20</v>
+      </c>
+      <c r="T17" s="15">
+        <v>0</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA17" s="32"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15">
+        <v>1</v>
+      </c>
+      <c r="S18" s="15">
+        <v>20</v>
+      </c>
+      <c r="T18" s="15">
+        <v>1500</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA18" s="32"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>1</v>
+      </c>
+      <c r="R19" s="15">
+        <v>1</v>
+      </c>
+      <c r="S19" s="15">
+        <v>20</v>
+      </c>
+      <c r="T19" s="15">
+        <v>3000</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA19" s="32"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
+      <c r="A20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15">
+        <v>1</v>
+      </c>
+      <c r="S20" s="15">
+        <v>20</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA20" s="32"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:27">
+      <c r="A21" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="14">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>10</v>
+      </c>
+      <c r="R21" s="15">
+        <v>1</v>
+      </c>
+      <c r="S21" s="15">
+        <v>20</v>
+      </c>
+      <c r="T21" s="15">
+        <v>0</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA21" s="32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="381.5" customHeight="1" spans="1:27">
+      <c r="A22" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>12</v>
+      </c>
+      <c r="R22" s="15">
+        <v>1</v>
+      </c>
+      <c r="S22" s="15">
+        <v>20</v>
+      </c>
+      <c r="T22" s="15">
+        <v>0</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA22" s="32"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="101" customHeight="1" spans="1:27">
+      <c r="A23" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15">
+        <v>1</v>
+      </c>
+      <c r="S23" s="15">
+        <v>20</v>
+      </c>
+      <c r="T23" s="15">
+        <v>0</v>
+      </c>
+      <c r="U23" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA23" s="32"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="101" customHeight="1" spans="1:27">
+      <c r="A24" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15">
+        <v>1</v>
+      </c>
+      <c r="S24" s="15">
+        <v>20</v>
+      </c>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA24" s="32"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="134" customHeight="1" spans="1:27">
+      <c r="A25" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15">
+        <v>1</v>
+      </c>
+      <c r="S25" s="15">
+        <v>20</v>
+      </c>
+      <c r="T25" s="15">
+        <v>0</v>
+      </c>
+      <c r="U25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA25" s="32"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:27">
+      <c r="A26" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14">
+      <c r="L26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15">
         <v>3</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14">
+      <c r="Q26" s="15">
+        <v>10</v>
+      </c>
+      <c r="R26" s="15">
         <v>1</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S26" s="15">
         <v>20</v>
       </c>
-      <c r="T3" s="14">
-        <v>2000</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="14" t="s">
+      <c r="T26" s="15">
+        <v>4000</v>
+      </c>
+      <c r="U26" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="V26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="14"/>
+      <c r="W26" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA26" s="32"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
-      <c r="A4" s="9" t="s">
+    <row r="27" s="1" customFormat="1" ht="134" customHeight="1" spans="1:27">
+      <c r="A27" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>10</v>
+      </c>
+      <c r="R27" s="15">
+        <v>1</v>
+      </c>
+      <c r="S27" s="15">
+        <v>20</v>
+      </c>
+      <c r="T27" s="15">
+        <v>4000</v>
+      </c>
+      <c r="U27" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="X27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>5</v>
-      </c>
-      <c r="R4" s="14">
-        <v>1</v>
-      </c>
-      <c r="S4" s="14">
-        <v>20</v>
-      </c>
-      <c r="T4" s="14">
-        <v>1500</v>
-      </c>
-      <c r="U4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y4" s="14"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
-      <c r="A5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14">
-        <v>1</v>
-      </c>
-      <c r="S5" s="14">
-        <v>20</v>
-      </c>
-      <c r="T5" s="14">
-        <v>1500</v>
-      </c>
-      <c r="U5" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y5" s="14"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A6" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>4</v>
-      </c>
-      <c r="R6" s="14">
-        <v>1</v>
-      </c>
-      <c r="S6" s="14">
-        <v>20</v>
-      </c>
-      <c r="T6" s="14">
-        <v>1000</v>
-      </c>
-      <c r="U6" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="V6" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" s="14"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14">
-        <v>1</v>
-      </c>
-      <c r="S7" s="14">
-        <v>20</v>
-      </c>
-      <c r="T7" s="14">
-        <v>700</v>
-      </c>
-      <c r="U7" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="14"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
-      <c r="A8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>4</v>
-      </c>
-      <c r="R8" s="14">
-        <v>1</v>
-      </c>
-      <c r="S8" s="14">
-        <v>20</v>
-      </c>
-      <c r="T8" s="14">
-        <v>1500</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y8" s="14"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14">
-        <v>1</v>
-      </c>
-      <c r="S9" s="14">
-        <v>20</v>
-      </c>
-      <c r="T9" s="14">
-        <v>0</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y9" s="14"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A10" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14">
-        <v>1</v>
-      </c>
-      <c r="S10" s="14">
-        <v>20</v>
-      </c>
-      <c r="T10" s="14">
-        <v>0</v>
-      </c>
-      <c r="U10" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y10" s="14"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
-      <c r="A11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>10</v>
-      </c>
-      <c r="R11" s="14">
-        <v>1</v>
-      </c>
-      <c r="S11" s="14">
-        <v>20</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0</v>
-      </c>
-      <c r="U11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y11" s="14"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="183.5" customHeight="1" spans="1:25">
-      <c r="A12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>10</v>
-      </c>
-      <c r="R12" s="14">
-        <v>1</v>
-      </c>
-      <c r="S12" s="14">
-        <v>20</v>
-      </c>
-      <c r="T12" s="14">
-        <v>0</v>
-      </c>
-      <c r="U12" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="V12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" s="14"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14">
-        <v>1</v>
-      </c>
-      <c r="S13" s="14">
-        <v>20</v>
-      </c>
-      <c r="T13" s="14">
-        <v>700</v>
-      </c>
-      <c r="U13" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y13" s="14"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="68" customHeight="1" spans="1:25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14">
-        <v>1</v>
-      </c>
-      <c r="S14" s="14">
-        <v>20</v>
-      </c>
-      <c r="T14" s="14">
-        <v>700</v>
-      </c>
-      <c r="U14" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="V14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y14" s="14"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14">
-        <v>1</v>
-      </c>
-      <c r="S15" s="14">
-        <v>20</v>
-      </c>
-      <c r="T15" s="14">
-        <v>700</v>
-      </c>
-      <c r="U15" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="V15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y15" s="14"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14">
-        <v>1</v>
-      </c>
-      <c r="S16" s="14">
-        <v>20</v>
-      </c>
-      <c r="T16" s="14">
-        <v>700</v>
-      </c>
-      <c r="U16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="V16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y16" s="14"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14">
-        <v>1</v>
-      </c>
-      <c r="S17" s="14">
-        <v>20</v>
-      </c>
-      <c r="T17" s="14">
-        <v>0</v>
-      </c>
-      <c r="U17" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y17" s="14"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14">
-        <v>1</v>
-      </c>
-      <c r="S18" s="14">
-        <v>20</v>
-      </c>
-      <c r="T18" s="14">
-        <v>1500</v>
-      </c>
-      <c r="U18" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y18" s="14"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="51.5" customHeight="1" spans="1:25">
-      <c r="A19" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>1</v>
-      </c>
-      <c r="R19" s="14">
-        <v>1</v>
-      </c>
-      <c r="S19" s="14">
-        <v>20</v>
-      </c>
-      <c r="T19" s="14">
-        <v>3000</v>
-      </c>
-      <c r="U19" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="V19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y19" s="14"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="35" customHeight="1" spans="1:25">
-      <c r="A20" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14">
-        <v>1</v>
-      </c>
-      <c r="S20" s="14">
-        <v>20</v>
-      </c>
-      <c r="T20" s="14">
-        <v>0</v>
-      </c>
-      <c r="U20" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y20" s="14"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="117.5" customHeight="1" spans="1:25">
-      <c r="A21" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14">
-        <v>1</v>
-      </c>
-      <c r="S21" s="14">
-        <v>20</v>
-      </c>
-      <c r="T21" s="14">
-        <v>0</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y21" s="14"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="381.5" customHeight="1" spans="1:25">
-      <c r="A22" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>12</v>
-      </c>
-      <c r="R22" s="14">
-        <v>1</v>
-      </c>
-      <c r="S22" s="14">
-        <v>20</v>
-      </c>
-      <c r="T22" s="14">
-        <v>0</v>
-      </c>
-      <c r="U22" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="V22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y22" s="14"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
-      <c r="A23" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14">
-        <v>1</v>
-      </c>
-      <c r="S23" s="14">
-        <v>20</v>
-      </c>
-      <c r="T23" s="14">
-        <v>0</v>
-      </c>
-      <c r="U23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V23" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y23" s="14"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="99.75" spans="1:25">
-      <c r="A24" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14">
-        <v>1</v>
-      </c>
-      <c r="S24" s="14">
-        <v>20</v>
-      </c>
-      <c r="T24" s="14">
-        <v>0</v>
-      </c>
-      <c r="U24" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="V24" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y24" s="14"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="101" customHeight="1" spans="1:25">
-      <c r="A25" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14">
-        <v>1</v>
-      </c>
-      <c r="S25" s="14">
-        <v>20</v>
-      </c>
-      <c r="T25" s="14">
-        <v>0</v>
-      </c>
-      <c r="U25" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y25" s="14"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="84.5" customHeight="1" spans="1:25">
-      <c r="A26" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>10</v>
-      </c>
-      <c r="R26" s="14">
-        <v>1</v>
-      </c>
-      <c r="S26" s="14">
-        <v>20</v>
-      </c>
-      <c r="T26" s="14">
-        <v>4000</v>
-      </c>
-      <c r="U26" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y26" s="14"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="132.75" spans="1:25">
-      <c r="A27" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>10</v>
-      </c>
-      <c r="R27" s="14">
-        <v>1</v>
-      </c>
-      <c r="S27" s="14">
-        <v>20</v>
-      </c>
-      <c r="T27" s="14">
-        <v>4000</v>
-      </c>
-      <c r="U27" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="W27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="X27" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y27" s="14"/>
+      <c r="AA27" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
